--- a/MDT/DienstenCatalogus/DienstendefinitieEDS.xlsx
+++ b/MDT/DienstenCatalogus/DienstendefinitieEDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="5976" windowWidth="23052" windowHeight="3492" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-12" yWindow="5976" windowWidth="23052" windowHeight="3492" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Totaaloverzicht" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="869">
   <si>
     <t>Tarief</t>
   </si>
@@ -1258,9 +1258,6 @@
   </si>
   <si>
     <t>IVS-VRZ</t>
-  </si>
-  <si>
-    <t>IVS-VL-LTD</t>
   </si>
   <si>
     <t>IVS_VEHICLE_LIST</t>
@@ -4243,10 +4240,10 @@
     </row>
     <row r="2" spans="1:31" s="30" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2" s="112" t="s">
         <v>811</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>812</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>97</v>
@@ -4282,16 +4279,16 @@
         <v>32</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O2" s="35" t="s">
+        <v>807</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>808</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>809</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>810</v>
       </c>
       <c r="R2" s="35" t="s">
         <v>193</v>
@@ -4303,51 +4300,51 @@
         <v>203</v>
       </c>
       <c r="U2" s="35" t="s">
+        <v>805</v>
+      </c>
+      <c r="V2" s="107" t="s">
+        <v>803</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>804</v>
+      </c>
+      <c r="X2" s="106" t="s">
         <v>806</v>
-      </c>
-      <c r="V2" s="107" t="s">
-        <v>804</v>
-      </c>
-      <c r="W2" s="32" t="s">
-        <v>805</v>
-      </c>
-      <c r="X2" s="106" t="s">
-        <v>807</v>
       </c>
       <c r="Y2" s="68" t="s">
         <v>0</v>
       </c>
       <c r="Z2" s="106" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AA2" s="113" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AB2" s="113" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AC2" s="113" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AD2" s="113" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AE2" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="29" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="109"/>
       <c r="C3" s="63" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="89" t="s">
+        <v>464</v>
+      </c>
+      <c r="F3" s="89" t="s">
         <v>465</v>
-      </c>
-      <c r="F3" s="89" t="s">
-        <v>466</v>
       </c>
       <c r="G3" s="64"/>
       <c r="H3" s="16"/>
@@ -4377,22 +4374,22 @@
     </row>
     <row r="4" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="126" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B4" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C4" s="128" t="s">
         <v>342</v>
       </c>
       <c r="D4" s="128" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E4" s="111" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F4" s="111" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G4" s="128" t="s">
         <v>338</v>
@@ -4461,33 +4458,33 @@
         <f>IF($E4 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E4,Webdiensten!$A$2:$A$991,0),W$1))</f>
         <v>IVS</v>
       </c>
-      <c r="X4" s="132" t="str">
+      <c r="X4" s="132" t="e">
         <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),X$1))</f>
-        <v>IVS-VL-LTD</v>
-      </c>
-      <c r="Y4" s="133">
+        <v>#N/A</v>
+      </c>
+      <c r="Y4" s="133" t="e">
         <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),Y$1))</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Z4" s="134" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Z4" s="134" t="e">
         <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),Z$1))</f>
-        <v>30110508</v>
-      </c>
-      <c r="AA4" s="135">
+        <v>#N/A</v>
+      </c>
+      <c r="AA4" s="135" t="e">
         <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v>30110508</v>
-      </c>
-      <c r="AB4" s="131" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AB4" s="131" t="e">
         <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),AB$1))</f>
-        <v>3843</v>
-      </c>
-      <c r="AC4" s="131">
+        <v>#N/A</v>
+      </c>
+      <c r="AC4" s="131" t="e">
         <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),AC$1))</f>
-        <v>3843</v>
-      </c>
-      <c r="AD4" s="131" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="AD4" s="131" t="e">
         <f>IF($F4 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F4,Producten!$B$4:$B$983,0),AD$1))</f>
-        <v>Z49</v>
+        <v>#N/A</v>
       </c>
       <c r="AE4" s="6" t="str">
         <f>IF($E4 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E4,Webdiensten!$A$2:$A$991,0),AE$1))</f>
@@ -4496,10 +4493,10 @@
     </row>
     <row r="5" spans="1:31" s="125" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="115" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C5" s="117" t="s">
         <v>342</v>
@@ -4508,10 +4505,10 @@
         <v>306</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F5" s="111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G5" s="117" t="s">
         <v>329</v>
@@ -4615,10 +4612,10 @@
     </row>
     <row r="6" spans="1:31" s="136" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="126" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C6" s="128" t="s">
         <v>342</v>
@@ -4627,7 +4624,7 @@
         <v>305</v>
       </c>
       <c r="E6" s="111" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F6" s="111" t="s">
         <v>54</v>
@@ -4734,10 +4731,10 @@
     </row>
     <row r="7" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="115" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C7" s="117" t="s">
         <v>342</v>
@@ -4746,10 +4743,10 @@
         <v>340</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F7" s="111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G7" s="117"/>
       <c r="H7" s="118" t="str">
@@ -4851,10 +4848,10 @@
     </row>
     <row r="8" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="126" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B8" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C8" s="128" t="s">
         <v>342</v>
@@ -4863,10 +4860,10 @@
         <v>126</v>
       </c>
       <c r="E8" s="111" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F8" s="111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G8" s="128"/>
       <c r="H8" s="129" t="str">
@@ -4968,10 +4965,10 @@
     </row>
     <row r="9" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="115" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B9" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C9" s="117" t="s">
         <v>342</v>
@@ -4980,7 +4977,7 @@
         <v>351</v>
       </c>
       <c r="E9" s="111" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F9" s="111" t="s">
         <v>382</v>
@@ -5087,10 +5084,10 @@
     </row>
     <row r="10" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="126" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B10" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C10" s="128" t="s">
         <v>342</v>
@@ -5099,10 +5096,10 @@
         <v>299</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G10" s="128"/>
       <c r="H10" s="129" t="str">
@@ -5204,19 +5201,19 @@
     </row>
     <row r="11" spans="1:31" s="125" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="115" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B11" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C11" s="117" t="s">
         <v>342</v>
       </c>
       <c r="D11" s="117" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F11" s="111" t="s">
         <v>167</v>
@@ -5345,19 +5342,19 @@
     </row>
     <row r="12" spans="1:31" s="136" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="126" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B12" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C12" s="128" t="s">
         <v>342</v>
       </c>
       <c r="D12" s="128" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F12" s="111" t="s">
         <v>167</v>
@@ -5486,10 +5483,10 @@
     </row>
     <row r="13" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="115" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B13" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C13" s="117" t="s">
         <v>342</v>
@@ -5498,7 +5495,7 @@
         <v>301</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F13" s="111" t="s">
         <v>159</v>
@@ -5603,10 +5600,10 @@
     </row>
     <row r="14" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="126" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C14" s="128" t="s">
         <v>342</v>
@@ -5615,7 +5612,7 @@
         <v>301</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F14" s="111" t="s">
         <v>159</v>
@@ -5720,22 +5717,22 @@
     </row>
     <row r="15" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="115" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B15" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C15" s="117" t="s">
         <v>342</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E15" s="111" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F15" s="111" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G15" s="117" t="s">
         <v>337</v>
@@ -5839,22 +5836,22 @@
     </row>
     <row r="16" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="126" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B16" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C16" s="128" t="s">
         <v>342</v>
       </c>
       <c r="D16" s="128" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E16" s="111" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F16" s="111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G16" s="128" t="s">
         <v>320</v>
@@ -5958,10 +5955,10 @@
     </row>
     <row r="17" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="115" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C17" s="117" t="s">
         <v>342</v>
@@ -5970,10 +5967,10 @@
         <v>298</v>
       </c>
       <c r="E17" s="111" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F17" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G17" s="117" t="s">
         <v>319</v>
@@ -6080,7 +6077,7 @@
         <v>296</v>
       </c>
       <c r="B18" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C18" s="128" t="s">
         <v>345</v>
@@ -6092,7 +6089,7 @@
         <v>296</v>
       </c>
       <c r="F18" s="111" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G18" s="128" t="s">
         <v>339</v>
@@ -6196,10 +6193,10 @@
     </row>
     <row r="19" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="115" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C19" s="117" t="s">
         <v>345</v>
@@ -6208,7 +6205,7 @@
         <v>318</v>
       </c>
       <c r="E19" s="111" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F19" s="111" t="s">
         <v>297</v>
@@ -6318,7 +6315,7 @@
         <v>292</v>
       </c>
       <c r="B20" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C20" s="128" t="s">
         <v>346</v>
@@ -6330,7 +6327,7 @@
         <v>292</v>
       </c>
       <c r="F20" s="111" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G20" s="128" t="s">
         <v>302</v>
@@ -6434,10 +6431,10 @@
     </row>
     <row r="21" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="115" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C21" s="117" t="s">
         <v>343</v>
@@ -6446,7 +6443,7 @@
         <v>300</v>
       </c>
       <c r="E21" s="111" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F21" s="111" t="s">
         <v>384</v>
@@ -6553,10 +6550,10 @@
     </row>
     <row r="22" spans="1:31" s="136" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="126" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B22" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C22" s="128" t="s">
         <v>343</v>
@@ -6565,10 +6562,10 @@
         <v>304</v>
       </c>
       <c r="E22" s="111" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F22" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G22" s="128" t="s">
         <v>327</v>
@@ -6672,10 +6669,10 @@
     </row>
     <row r="23" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="115" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C23" s="117" t="s">
         <v>343</v>
@@ -6684,10 +6681,10 @@
         <v>309</v>
       </c>
       <c r="E23" s="111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F23" s="111" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G23" s="117" t="s">
         <v>331</v>
@@ -6791,19 +6788,19 @@
     </row>
     <row r="24" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="126" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B24" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C24" s="128" t="s">
         <v>343</v>
       </c>
       <c r="D24" s="128" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E24" s="111" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F24" s="111" t="s">
         <v>382</v>
@@ -6908,10 +6905,10 @@
     </row>
     <row r="25" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="115" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C25" s="117" t="s">
         <v>343</v>
@@ -6920,7 +6917,7 @@
         <v>316</v>
       </c>
       <c r="E25" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F25" s="111" t="s">
         <v>295</v>
@@ -7027,10 +7024,10 @@
     </row>
     <row r="26" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="126" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B26" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C26" s="128" t="s">
         <v>343</v>
@@ -7039,7 +7036,7 @@
         <v>315</v>
       </c>
       <c r="E26" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F26" s="111" t="s">
         <v>355</v>
@@ -7144,10 +7141,10 @@
     </row>
     <row r="27" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="115" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C27" s="117" t="s">
         <v>343</v>
@@ -7156,7 +7153,7 @@
         <v>314</v>
       </c>
       <c r="E27" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F27" s="111" t="s">
         <v>354</v>
@@ -7261,10 +7258,10 @@
     </row>
     <row r="28" spans="1:31" s="136" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="126" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B28" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C28" s="128" t="s">
         <v>343</v>
@@ -7273,7 +7270,7 @@
         <v>307</v>
       </c>
       <c r="E28" s="111" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F28" s="111" t="s">
         <v>37</v>
@@ -7380,10 +7377,10 @@
     </row>
     <row r="29" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="115" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B29" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C29" s="117" t="s">
         <v>344</v>
@@ -7392,7 +7389,7 @@
         <v>350</v>
       </c>
       <c r="E29" s="111" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F29" s="111" t="s">
         <v>382</v>
@@ -7497,10 +7494,10 @@
     </row>
     <row r="30" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="126" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B30" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C30" s="128" t="s">
         <v>344</v>
@@ -7509,10 +7506,10 @@
         <v>310</v>
       </c>
       <c r="E30" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F30" s="111" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G30" s="128" t="s">
         <v>332</v>
@@ -7619,7 +7616,7 @@
         <v>293</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C31" s="117" t="s">
         <v>344</v>
@@ -7631,7 +7628,7 @@
         <v>293</v>
       </c>
       <c r="F31" s="111" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G31" s="117" t="s">
         <v>332</v>
@@ -7735,10 +7732,10 @@
     </row>
     <row r="32" spans="1:31" s="136" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="126" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B32" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C32" s="128" t="s">
         <v>344</v>
@@ -7747,7 +7744,7 @@
         <v>308</v>
       </c>
       <c r="E32" s="111" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F32" s="111" t="s">
         <v>51</v>
@@ -7854,22 +7851,22 @@
     </row>
     <row r="33" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="115" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C33" s="117" t="s">
         <v>344</v>
       </c>
       <c r="D33" s="117" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E33" s="111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F33" s="111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G33" s="117" t="s">
         <v>337</v>
@@ -7973,10 +7970,10 @@
     </row>
     <row r="34" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="126" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B34" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C34" s="128" t="s">
         <v>344</v>
@@ -7985,7 +7982,7 @@
         <v>312</v>
       </c>
       <c r="E34" s="111" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F34" s="111" t="s">
         <v>352</v>
@@ -8095,7 +8092,7 @@
         <v>294</v>
       </c>
       <c r="B35" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C35" s="117" t="s">
         <v>344</v>
@@ -8214,7 +8211,7 @@
         <v>133</v>
       </c>
       <c r="B36" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C36" s="128" t="s">
         <v>24</v>
@@ -8330,10 +8327,10 @@
     </row>
     <row r="37" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="115" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B37" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C37" s="117" t="s">
         <v>24</v>
@@ -8342,7 +8339,7 @@
         <v>131</v>
       </c>
       <c r="E37" s="111" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F37" s="111" t="s">
         <v>169</v>
@@ -8449,10 +8446,10 @@
     </row>
     <row r="38" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="126" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B38" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C38" s="128" t="s">
         <v>24</v>
@@ -8461,7 +8458,7 @@
         <v>136</v>
       </c>
       <c r="E38" s="111" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F38" s="111" t="s">
         <v>215</v>
@@ -8568,10 +8565,10 @@
     </row>
     <row r="39" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="115" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B39" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C39" s="117" t="s">
         <v>24</v>
@@ -8580,7 +8577,7 @@
         <v>138</v>
       </c>
       <c r="E39" s="111" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F39" s="111"/>
       <c r="G39" s="117" t="s">
@@ -8685,10 +8682,10 @@
     </row>
     <row r="40" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="126" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B40" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C40" s="128" t="s">
         <v>24</v>
@@ -8697,7 +8694,7 @@
         <v>137</v>
       </c>
       <c r="E40" s="111" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F40" s="111"/>
       <c r="G40" s="128" t="s">
@@ -8802,10 +8799,10 @@
     </row>
     <row r="41" spans="1:31" s="125" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="115" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B41" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C41" s="117" t="s">
         <v>24</v>
@@ -8814,7 +8811,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="111" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F41" s="111" t="s">
         <v>1</v>
@@ -8921,10 +8918,10 @@
     </row>
     <row r="42" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="126" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B42" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C42" s="128" t="s">
         <v>24</v>
@@ -8933,10 +8930,10 @@
         <v>126</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F42" s="111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G42" s="128" t="s">
         <v>22</v>
@@ -9040,10 +9037,10 @@
     </row>
     <row r="43" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="115" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B43" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C43" s="117" t="s">
         <v>24</v>
@@ -9052,7 +9049,7 @@
         <v>130</v>
       </c>
       <c r="E43" s="111" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F43" s="111" t="s">
         <v>211</v>
@@ -9159,10 +9156,10 @@
     </row>
     <row r="44" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="126" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B44" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C44" s="128" t="s">
         <v>24</v>
@@ -9171,7 +9168,7 @@
         <v>127</v>
       </c>
       <c r="E44" s="111" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F44" s="111"/>
       <c r="G44" s="128" t="s">
@@ -9279,7 +9276,7 @@
         <v>285</v>
       </c>
       <c r="B45" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C45" s="117" t="s">
         <v>24</v>
@@ -9395,19 +9392,19 @@
     </row>
     <row r="46" spans="1:31" s="136" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="126" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B46" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C46" s="128" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="128" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F46" s="111" t="s">
         <v>167</v>
@@ -9541,7 +9538,7 @@
         <v>165</v>
       </c>
       <c r="B47" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C47" s="117" t="s">
         <v>24</v>
@@ -9550,7 +9547,7 @@
         <v>125</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F47" s="111" t="s">
         <v>159</v>
@@ -9657,10 +9654,10 @@
     </row>
     <row r="48" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="126" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B48" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C48" s="128" t="s">
         <v>24</v>
@@ -9669,7 +9666,7 @@
         <v>141</v>
       </c>
       <c r="E48" s="111" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F48" s="111"/>
       <c r="G48" s="128" t="s">
@@ -9774,10 +9771,10 @@
     </row>
     <row r="49" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="115" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B49" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C49" s="117" t="s">
         <v>24</v>
@@ -9786,7 +9783,7 @@
         <v>140</v>
       </c>
       <c r="E49" s="111" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F49" s="111" t="s">
         <v>139</v>
@@ -9893,10 +9890,10 @@
     </row>
     <row r="50" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="126" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B50" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C50" s="128" t="s">
         <v>24</v>
@@ -9905,7 +9902,7 @@
         <v>290</v>
       </c>
       <c r="E50" s="111" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F50" s="111" t="s">
         <v>289</v>
@@ -10015,7 +10012,7 @@
         <v>128</v>
       </c>
       <c r="B51" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C51" s="117" t="s">
         <v>24</v>
@@ -10131,22 +10128,22 @@
     </row>
     <row r="52" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="126" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B52" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C52" s="128" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="128" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E52" s="111" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F52" s="111" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G52" s="128" t="s">
         <v>146</v>
@@ -10250,25 +10247,25 @@
     </row>
     <row r="53" spans="1:31" s="125" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="115" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B53" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C53" s="117" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="117" t="s">
+        <v>647</v>
+      </c>
+      <c r="E53" s="111" t="s">
+        <v>817</v>
+      </c>
+      <c r="F53" s="111" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" s="117" t="s">
         <v>648</v>
-      </c>
-      <c r="E53" s="111" t="s">
-        <v>818</v>
-      </c>
-      <c r="F53" s="111" t="s">
-        <v>444</v>
-      </c>
-      <c r="G53" s="117" t="s">
-        <v>649</v>
       </c>
       <c r="H53" s="118" t="str">
         <f>IF($E53 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E53,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -10369,22 +10366,22 @@
     </row>
     <row r="54" spans="1:31" s="136" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="126" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B54" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C54" s="128" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D54" s="128" t="s">
         <v>306</v>
       </c>
       <c r="E54" s="111" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F54" s="111" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G54" s="128" t="s">
         <v>329</v>
@@ -10488,10 +10485,10 @@
     </row>
     <row r="55" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B55" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C55" s="117" t="s">
         <v>341</v>
@@ -10500,10 +10497,10 @@
         <v>303</v>
       </c>
       <c r="E55" s="111" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F55" s="111" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G55" s="117" t="s">
         <v>323</v>
@@ -10607,10 +10604,10 @@
     </row>
     <row r="56" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="126" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B56" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C56" s="128" t="s">
         <v>341</v>
@@ -10619,10 +10616,10 @@
         <v>303</v>
       </c>
       <c r="E56" s="111" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F56" s="111" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G56" s="128" t="s">
         <v>324</v>
@@ -10726,10 +10723,10 @@
     </row>
     <row r="57" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="115" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B57" s="116" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C57" s="117" t="s">
         <v>341</v>
@@ -10738,10 +10735,10 @@
         <v>303</v>
       </c>
       <c r="E57" s="111" t="s">
+        <v>410</v>
+      </c>
+      <c r="F57" s="111" t="s">
         <v>411</v>
-      </c>
-      <c r="F57" s="111" t="s">
-        <v>412</v>
       </c>
       <c r="G57" s="117" t="s">
         <v>325</v>
@@ -10845,10 +10842,10 @@
     </row>
     <row r="58" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="126" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B58" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C58" s="128" t="s">
         <v>341</v>
@@ -10857,10 +10854,10 @@
         <v>303</v>
       </c>
       <c r="E58" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F58" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G58" s="128" t="s">
         <v>326</v>
@@ -10964,17 +10961,17 @@
     </row>
     <row r="59" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="126" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B59" s="127" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C59" s="149" t="s">
         <v>343</v>
       </c>
       <c r="D59" s="128"/>
       <c r="E59" s="111" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F59" s="111"/>
       <c r="G59" s="128" t="s">
@@ -11167,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="159" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D2" s="160"/>
       <c r="E2" s="160"/>
@@ -40086,7 +40083,7 @@
   </sheetPr>
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -40128,7 +40125,7 @@
         <v>99</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>100</v>
@@ -40170,19 +40167,19 @@
         <v>103</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S1" s="15" t="s">
         <v>365</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>361</v>
@@ -40229,7 +40226,7 @@
     </row>
     <row r="3" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>170</v>
@@ -40280,18 +40277,18 @@
         <v>7</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>170</v>
@@ -40342,18 +40339,18 @@
         <v>7</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>170</v>
@@ -40401,13 +40398,13 @@
         <v>25</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R5" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>1</v>
@@ -40415,7 +40412,7 @@
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>170</v>
@@ -40466,18 +40463,18 @@
         <v>53</v>
       </c>
       <c r="R6" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>473</v>
-      </c>
       <c r="T6" s="90" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>170</v>
@@ -40528,13 +40525,13 @@
         <v>196</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -40566,7 +40563,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K8" s="74" t="s">
         <v>7</v>
@@ -40590,18 +40587,18 @@
         <v>66</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>170</v>
@@ -40652,10 +40649,10 @@
         <v>7</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>295</v>
@@ -40663,7 +40660,7 @@
     </row>
     <row r="10" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>170</v>
@@ -40714,10 +40711,10 @@
         <v>200</v>
       </c>
       <c r="R10" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>139</v>
@@ -40725,7 +40722,7 @@
     </row>
     <row r="11" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>170</v>
@@ -40752,7 +40749,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>7</v>
@@ -40776,13 +40773,13 @@
         <v>66</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -40814,7 +40811,7 @@
         <v>14</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K12" s="74" t="s">
         <v>7</v>
@@ -40838,18 +40835,18 @@
         <v>198</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>160</v>
@@ -40876,7 +40873,7 @@
         <v>14</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K13" s="74" t="s">
         <v>7</v>
@@ -40900,18 +40897,18 @@
         <v>198</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>160</v>
@@ -40962,18 +40959,18 @@
         <v>199</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>160</v>
@@ -41024,18 +41021,18 @@
         <v>197</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>160</v>
@@ -41088,12 +41085,12 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>160</v>
@@ -41120,7 +41117,7 @@
         <v>14</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>7</v>
@@ -41144,10 +41141,10 @@
         <v>164</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="T17" s="6" t="s">
         <v>288</v>
@@ -41155,7 +41152,7 @@
     </row>
     <row r="18" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>160</v>
@@ -41182,7 +41179,7 @@
         <v>14</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>7</v>
@@ -41206,10 +41203,10 @@
         <v>164</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="T18" s="6" t="s">
         <v>288</v>
@@ -41217,7 +41214,7 @@
     </row>
     <row r="19" spans="1:20" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="100" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B19" s="100" t="s">
         <v>160</v>
@@ -41270,12 +41267,12 @@
       <c r="R19" s="100"/>
       <c r="S19" s="100"/>
       <c r="T19" s="100" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>160</v>
@@ -41326,13 +41323,13 @@
         <v>349</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -41388,10 +41385,10 @@
         <v>197</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>128</v>
@@ -41399,7 +41396,7 @@
     </row>
     <row r="22" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>360</v>
@@ -41426,7 +41423,7 @@
         <v>14</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K22" s="78" t="s">
         <v>7</v>
@@ -41450,10 +41447,10 @@
         <v>164</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T22" s="6" t="s">
         <v>288</v>
@@ -41461,7 +41458,7 @@
     </row>
     <row r="23" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>360</v>
@@ -41488,7 +41485,7 @@
         <v>14</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>7</v>
@@ -41512,10 +41509,10 @@
         <v>164</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T23" s="6" t="s">
         <v>288</v>
@@ -41523,10 +41520,10 @@
     </row>
     <row r="24" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="90" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>22</v>
@@ -41571,17 +41568,17 @@
         <v>25</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="90" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="90" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
@@ -41632,18 +41629,18 @@
         <v>197</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T25" s="90" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>34</v>
@@ -41694,18 +41691,18 @@
         <v>197</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T26" s="90" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="90" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>34</v>
@@ -41756,18 +41753,18 @@
         <v>197</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T27" s="90" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>34</v>
@@ -41818,18 +41815,18 @@
         <v>199</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T28" s="90" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>34</v>
@@ -41880,18 +41877,18 @@
         <v>199</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="T29" s="90" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>34</v>
@@ -41942,18 +41939,18 @@
         <v>372</v>
       </c>
       <c r="R30" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="S30" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="S30" s="6" t="s">
-        <v>694</v>
-      </c>
       <c r="T30" s="90" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>34</v>
@@ -41980,7 +41977,7 @@
         <v>14</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>7</v>
@@ -42004,18 +42001,18 @@
         <v>371</v>
       </c>
       <c r="R31" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="S31" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="S31" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="T31" s="90" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>34</v>
@@ -42066,18 +42063,18 @@
         <v>373</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="T32" s="90" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
@@ -42128,18 +42125,18 @@
         <v>196</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="T33" s="90" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
@@ -42190,18 +42187,18 @@
         <v>197</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>34</v>
@@ -42252,18 +42249,18 @@
         <v>197</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>34</v>
@@ -42314,18 +42311,18 @@
         <v>197</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>34</v>
@@ -42376,13 +42373,13 @@
         <v>370</v>
       </c>
       <c r="R37" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="S37" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="S37" s="6" t="s">
-        <v>481</v>
-      </c>
       <c r="T37" s="90" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -42438,18 +42435,18 @@
         <v>370</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="T38" s="90" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>34</v>
@@ -42502,12 +42499,12 @@
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="90" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>34</v>
@@ -42534,7 +42531,7 @@
         <v>14</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>7</v>
@@ -42558,10 +42555,10 @@
         <v>164</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T40" s="6" t="s">
         <v>288</v>
@@ -42569,7 +42566,7 @@
     </row>
     <row r="41" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>34</v>
@@ -42596,7 +42593,7 @@
         <v>14</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>7</v>
@@ -42620,10 +42617,10 @@
         <v>164</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="T41" s="6" t="s">
         <v>288</v>
@@ -42682,10 +42679,10 @@
         <v>197</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T42" s="94" t="s">
         <v>296</v>
@@ -42693,7 +42690,7 @@
     </row>
     <row r="43" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="90" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -42744,18 +42741,18 @@
         <v>197</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T43" s="90" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -42806,18 +42803,18 @@
         <v>197</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T44" s="90" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="90" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>34</v>
@@ -42868,10 +42865,10 @@
         <v>367</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="T45" s="90" t="s">
         <v>295</v>
@@ -42879,7 +42876,7 @@
     </row>
     <row r="46" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>34</v>
@@ -42906,7 +42903,7 @@
         <v>14</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>7</v>
@@ -42930,18 +42927,18 @@
         <v>368</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="T46" s="90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="90" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>34</v>
@@ -42968,7 +42965,7 @@
         <v>14</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>7</v>
@@ -42992,18 +42989,18 @@
         <v>368</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="T47" s="90" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>34</v>
@@ -43054,18 +43051,18 @@
         <v>36</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="99" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B49" s="100" t="s">
         <v>34</v>
@@ -43074,7 +43071,7 @@
         <v>356</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E49" s="100" t="s">
         <v>23</v>
@@ -43118,12 +43115,12 @@
       <c r="R49" s="100"/>
       <c r="S49" s="100"/>
       <c r="T49" s="99" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="99" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B50" s="100" t="s">
         <v>34</v>
@@ -43174,18 +43171,18 @@
         <v>197</v>
       </c>
       <c r="R50" s="100" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="S50" s="100" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T50" s="99" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="99" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B51" s="100" t="s">
         <v>34</v>
@@ -43236,18 +43233,18 @@
         <v>197</v>
       </c>
       <c r="R51" s="100" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S51" s="100" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T51" s="99" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>34</v>
@@ -43298,18 +43295,18 @@
         <v>36</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="90" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>34</v>
@@ -43360,18 +43357,18 @@
         <v>197</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T53" s="90" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="90" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>34</v>
@@ -43392,7 +43389,7 @@
         <v>181</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>14</v>
@@ -43422,18 +43419,18 @@
         <v>197</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T54" s="90" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>34</v>
@@ -43454,7 +43451,7 @@
         <v>181</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>14</v>
@@ -43484,18 +43481,18 @@
         <v>197</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T55" s="90" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="90" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>34</v>
@@ -43546,13 +43543,13 @@
         <v>369</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T56" s="90" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -43608,18 +43605,18 @@
         <v>369</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T57" s="90" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>34</v>
@@ -43646,7 +43643,7 @@
         <v>14</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>7</v>
@@ -43670,18 +43667,18 @@
         <v>66</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="90" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>34</v>
@@ -43732,18 +43729,18 @@
         <v>366</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T59" s="90" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="90" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>34</v>
@@ -43796,7 +43793,7 @@
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="90" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -43822,7 +43819,7 @@
         <v>181</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>14</v>
@@ -43852,10 +43849,10 @@
         <v>197</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T61" s="90" t="s">
         <v>292</v>
@@ -43863,7 +43860,7 @@
     </row>
     <row r="62" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="147" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B62" s="77" t="s">
         <v>34</v>
@@ -43884,7 +43881,7 @@
         <v>180</v>
       </c>
       <c r="H62" s="77" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I62" s="77" t="s">
         <v>25</v>
@@ -43941,8 +43938,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43995,79 +43992,79 @@
         <v>17</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>852</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>853</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>854</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27" t="s">
+        <v>856</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>858</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>859</v>
-      </c>
       <c r="M2" s="25" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>863</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>864</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="27" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -44079,7 +44076,7 @@
         <v>169</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>213</v>
@@ -44111,7 +44108,7 @@
         <v>7</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -44123,7 +44120,7 @@
         <v>132</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>214</v>
@@ -44146,7 +44143,7 @@
         <v>3813</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K5" s="48">
         <v>20</v>
@@ -44164,13 +44161,13 @@
         <v>DEM-BED</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E6" s="75">
         <v>0</v>
@@ -44199,7 +44196,7 @@
         <v>7</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -44211,7 +44208,7 @@
         <v>215</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>216</v>
@@ -44243,7 +44240,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -44252,13 +44249,13 @@
         <v>DEM-OVE</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E8" s="75">
         <v>0</v>
@@ -44287,15 +44284,15 @@
         <v>7</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>204</v>
@@ -44336,13 +44333,13 @@
         <v>DTS</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>445</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E10" s="75">
         <v>9.83</v>
@@ -44362,7 +44359,7 @@
         <v>3927</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K10" s="76">
         <v>20</v>
@@ -44371,7 +44368,7 @@
         <v>18</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -44415,7 +44412,7 @@
         <v>18</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -44424,7 +44421,7 @@
         <v>EMC</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>372</v>
@@ -44459,7 +44456,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -44503,7 +44500,7 @@
         <v>7</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -44547,7 +44544,7 @@
         <v>18</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -44600,13 +44597,13 @@
         <v>IVS-REC-STAT</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E16" s="75">
         <v>1.95</v>
@@ -44644,13 +44641,13 @@
         <v>IVS-SHP-0001</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E17" s="75">
         <v>0</v>
@@ -44679,7 +44676,7 @@
         <v>379</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -44688,13 +44685,13 @@
         <v>IVS-SHP-0002</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E18" s="75">
         <v>0</v>
@@ -44723,7 +44720,7 @@
         <v>379</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -44732,13 +44729,13 @@
         <v>IVS-SHP-0003</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="E19" s="75">
         <v>0</v>
@@ -44767,7 +44764,7 @@
         <v>379</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -44776,13 +44773,13 @@
         <v>IVS-SHP-0004</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" s="75">
         <v>0</v>
@@ -44811,7 +44808,7 @@
         <v>379</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -44823,7 +44820,7 @@
         <v>384</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>385</v>
@@ -44855,7 +44852,7 @@
         <v>387</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -44864,13 +44861,13 @@
         <v>IVS-VL-DTL</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E22" s="75">
         <v>90</v>
@@ -44899,7 +44896,7 @@
         <v>379</v>
       </c>
       <c r="M22" s="115" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -44908,13 +44905,13 @@
         <v>IVS-VL-DTL-RTL</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>404</v>
       </c>
       <c r="E23" s="75">
         <v>90</v>
@@ -44943,7 +44940,7 @@
         <v>379</v>
       </c>
       <c r="M23" s="115" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -44952,13 +44949,13 @@
         <v>IVS-VL-FGV</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="E24" s="75">
         <v>0</v>
@@ -44987,52 +44984,22 @@
         <v>379</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>IVS-VL-LTD</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="E25" s="75">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F25" s="157" t="str">
-        <f t="shared" si="1"/>
-        <v>30110508</v>
-      </c>
-      <c r="G25" s="48">
-        <v>30110508</v>
-      </c>
-      <c r="H25" s="157" t="str">
-        <f t="shared" si="1"/>
-        <v>3843</v>
-      </c>
-      <c r="I25" s="48">
-        <v>3843</v>
-      </c>
-      <c r="J25" s="48" t="s">
-        <v>209</v>
-      </c>
-      <c r="K25" s="48">
-        <v>20</v>
-      </c>
-      <c r="L25" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="M25" s="126" t="s">
-        <v>731</v>
-      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="126"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
@@ -45075,7 +45042,7 @@
         <v>18</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="145" customFormat="1" x14ac:dyDescent="0.3">
@@ -45087,7 +45054,7 @@
         <v>212</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D27" s="141" t="s">
         <v>208</v>
@@ -45163,7 +45130,7 @@
         <v>379</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="145" customFormat="1" x14ac:dyDescent="0.3">
@@ -45172,13 +45139,13 @@
         <v>IVS-VRZ-REC</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D29" s="141" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E29" s="146">
         <v>0</v>
@@ -45216,7 +45183,7 @@
         <v>KCB</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>371</v>
@@ -45251,7 +45218,7 @@
         <v>7</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -45295,7 +45262,7 @@
         <v>7</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -45339,7 +45306,7 @@
         <v>7</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -45351,10 +45318,10 @@
         <v>295</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E33" s="75">
         <v>0</v>
@@ -45383,7 +45350,7 @@
         <v>379</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -45392,10 +45359,10 @@
         <v>OTT-OPV</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>370</v>
@@ -45427,7 +45394,7 @@
         <v>7</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -45436,10 +45403,10 @@
         <v>OTT-WIJZ</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>370</v>
@@ -45515,7 +45482,7 @@
         <v>379</v>
       </c>
       <c r="M36" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -45524,7 +45491,7 @@
         <v>RBCZ</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>375</v>
@@ -45559,7 +45526,7 @@
         <v>379</v>
       </c>
       <c r="M37" s="26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -45571,7 +45538,7 @@
         <v>297</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>366</v>
@@ -45597,7 +45564,7 @@
       <c r="K38" s="48"/>
       <c r="L38" s="48"/>
       <c r="M38" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -45609,7 +45576,7 @@
         <v>159</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>164</v>
@@ -45649,7 +45616,7 @@
         <v>167</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>164</v>
@@ -45677,10 +45644,10 @@
 -</v>
       </c>
       <c r="I40" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="J40" s="48" t="s">
         <v>449</v>
-      </c>
-      <c r="J40" s="48" t="s">
-        <v>450</v>
       </c>
       <c r="K40" s="48">
         <v>20</v>
@@ -45698,10 +45665,10 @@
         <v>SCH6</v>
       </c>
       <c r="B41" s="151" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C41" s="152" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D41" s="151" t="s">
         <v>164</v>
@@ -45724,7 +45691,7 @@
         <v>3925</v>
       </c>
       <c r="J41" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K41" s="155">
         <v>20</v>
@@ -45740,10 +45707,10 @@
         <v>SCH2</v>
       </c>
       <c r="B42" s="151" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C42" s="152" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D42" s="151" t="s">
         <v>164</v>
@@ -45766,7 +45733,7 @@
         <v>3923</v>
       </c>
       <c r="J42" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K42" s="155">
         <v>20</v>
@@ -45782,10 +45749,10 @@
         <v>SCH1</v>
       </c>
       <c r="B43" s="151" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C43" s="152" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D43" s="151" t="s">
         <v>164</v>
@@ -45808,7 +45775,7 @@
         <v>3922</v>
       </c>
       <c r="J43" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K43" s="155">
         <v>20</v>
@@ -45824,10 +45791,10 @@
         <v>SCH4</v>
       </c>
       <c r="B44" s="151" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C44" s="152" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D44" s="151" t="s">
         <v>164</v>
@@ -45850,7 +45817,7 @@
         <v>3924</v>
       </c>
       <c r="J44" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K44" s="155">
         <v>20</v>
@@ -45866,10 +45833,10 @@
         <v>SCH3</v>
       </c>
       <c r="B45" s="151" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C45" s="152" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D45" s="151" t="s">
         <v>164</v>
@@ -45892,7 +45859,7 @@
         <v>7</v>
       </c>
       <c r="J45" s="155" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K45" s="155">
         <v>20</v>
@@ -45911,7 +45878,7 @@
         <v>51</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>36</v>
@@ -45943,7 +45910,7 @@
         <v>7</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -45955,7 +45922,7 @@
         <v>37</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>36</v>
@@ -45987,7 +45954,7 @@
         <v>7</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -46031,7 +45998,7 @@
         <v>18</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -46043,7 +46010,7 @@
         <v>352</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>369</v>
@@ -46075,7 +46042,7 @@
         <v>7</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -46087,7 +46054,7 @@
         <v>353</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>369</v>
@@ -46128,13 +46095,13 @@
         <v>VVK-KEN-TEN-BED</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E51" s="75">
         <v>31.5</v>
@@ -46163,7 +46130,7 @@
         <v>7</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -46172,10 +46139,10 @@
         <v>VVK-KEN-TEN-BUR</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>284</v>
@@ -46207,7 +46174,7 @@
         <v>18</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -46219,7 +46186,7 @@
         <v>279</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>284</v>
@@ -46260,13 +46227,13 @@
         <v>VVK-TEN-BED</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="E54" s="75">
         <v>1</v>
@@ -46295,7 +46262,7 @@
         <v>7</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -46307,7 +46274,7 @@
         <v>283</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>284</v>
@@ -46339,7 +46306,7 @@
         <v>18</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -46348,10 +46315,10 @@
         <v>VVKB</v>
       </c>
       <c r="B56" s="138" t="s">
+        <v>832</v>
+      </c>
+      <c r="C56" s="138" t="s">
         <v>833</v>
-      </c>
-      <c r="C56" s="138" t="s">
-        <v>834</v>
       </c>
       <c r="D56" s="138"/>
       <c r="E56" s="138"/>
@@ -46366,7 +46333,7 @@
       <c r="K56" s="139"/>
       <c r="L56" s="139"/>
       <c r="M56" s="140" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -46375,10 +46342,10 @@
         <v>VVK</v>
       </c>
       <c r="B57" s="138" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C57" s="138" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D57" s="138"/>
       <c r="E57" s="138"/>
@@ -46393,7 +46360,7 @@
       <c r="K57" s="139"/>
       <c r="L57" s="139"/>
       <c r="M57" s="140" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -46402,10 +46369,10 @@
         <v>EKB</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C58" s="138" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D58" s="138"/>
       <c r="E58" s="138"/>
@@ -46420,7 +46387,7 @@
       <c r="K58" s="139"/>
       <c r="L58" s="139"/>
       <c r="M58" s="140" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -46429,10 +46396,10 @@
         <v>BVO</v>
       </c>
       <c r="B59" s="138" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C59" s="138" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D59" s="138"/>
       <c r="E59" s="138"/>
@@ -46447,7 +46414,7 @@
       <c r="K59" s="139"/>
       <c r="L59" s="139"/>
       <c r="M59" s="140" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -47237,13 +47204,13 @@
         <v>2958</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C18" t="s">
         <v>263</v>
       </c>
       <c r="D18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -47251,16 +47218,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
       </c>
       <c r="D21" t="s">
+        <v>488</v>
+      </c>
+      <c r="E21" t="s">
         <v>489</v>
-      </c>
-      <c r="E21" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -47268,16 +47235,16 @@
         <v>125</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
       </c>
       <c r="D22" t="s">
+        <v>491</v>
+      </c>
+      <c r="E22" t="s">
         <v>492</v>
-      </c>
-      <c r="E22" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -47285,16 +47252,16 @@
         <v>978</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -47302,16 +47269,16 @@
         <v>997</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C24" t="s">
+        <v>497</v>
+      </c>
+      <c r="D24" t="s">
         <v>498</v>
       </c>
-      <c r="D24" t="s">
-        <v>499</v>
-      </c>
       <c r="E24" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -47319,13 +47286,13 @@
         <v>1214</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D25" t="s">
         <v>501</v>
-      </c>
-      <c r="D25" t="s">
-        <v>502</v>
       </c>
       <c r="E25" t="s">
         <v>348</v>
@@ -47336,7 +47303,7 @@
         <v>1303</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -47353,16 +47320,16 @@
         <v>1308</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27" t="s">
         <v>505</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>506</v>
-      </c>
-      <c r="E27" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -47370,7 +47337,7 @@
         <v>1593</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -47379,7 +47346,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -47387,16 +47354,16 @@
         <v>1869</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C29" t="s">
         <v>46</v>
       </c>
       <c r="D29" t="s">
+        <v>510</v>
+      </c>
+      <c r="E29" t="s">
         <v>511</v>
-      </c>
-      <c r="E29" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -47404,16 +47371,16 @@
         <v>2165</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -47421,16 +47388,16 @@
         <v>2175</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -47438,16 +47405,16 @@
         <v>2176</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -47455,16 +47422,16 @@
         <v>2284</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
+        <v>520</v>
+      </c>
+      <c r="E33" t="s">
         <v>521</v>
-      </c>
-      <c r="E33" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -47472,16 +47439,16 @@
         <v>2284</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -47489,16 +47456,16 @@
         <v>2304</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C35" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -47506,16 +47473,16 @@
         <v>2357</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -47523,7 +47490,7 @@
         <v>2384</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -47532,7 +47499,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -47540,13 +47507,13 @@
         <v>2397</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E38" t="s">
         <v>179</v>
@@ -47557,13 +47524,13 @@
         <v>2398</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E39" t="s">
         <v>179</v>
@@ -47574,13 +47541,13 @@
         <v>2398</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E40" t="s">
         <v>179</v>
@@ -47591,7 +47558,7 @@
         <v>2402</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -47600,7 +47567,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -47608,16 +47575,16 @@
         <v>2610</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D42" t="s">
+        <v>538</v>
+      </c>
+      <c r="E42" t="s">
         <v>539</v>
-      </c>
-      <c r="E42" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -47625,13 +47592,13 @@
         <v>2683</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C43" t="s">
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E43" t="s">
         <v>179</v>
@@ -47642,13 +47609,13 @@
         <v>2702</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C44" t="s">
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E44" t="s">
         <v>179</v>
@@ -47659,16 +47626,16 @@
         <v>2723</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C45" t="s">
+        <v>545</v>
+      </c>
+      <c r="D45" t="s">
         <v>546</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>547</v>
-      </c>
-      <c r="E45" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -47676,16 +47643,16 @@
         <v>2724</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D46" t="s">
         <v>546</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>547</v>
-      </c>
-      <c r="E46" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -47693,13 +47660,13 @@
         <v>2725</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C47" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E47" t="s">
         <v>179</v>
@@ -47710,16 +47677,16 @@
         <v>2726</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C48" t="s">
         <v>48</v>
       </c>
       <c r="D48" t="s">
+        <v>552</v>
+      </c>
+      <c r="E48" t="s">
         <v>553</v>
-      </c>
-      <c r="E48" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -47727,13 +47694,13 @@
         <v>2739</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C49" t="s">
+        <v>555</v>
+      </c>
+      <c r="D49" t="s">
         <v>556</v>
-      </c>
-      <c r="D49" t="s">
-        <v>557</v>
       </c>
       <c r="E49" t="s">
         <v>348</v>
@@ -47744,13 +47711,13 @@
         <v>2740</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D50" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E50" t="s">
         <v>348</v>
@@ -47761,16 +47728,16 @@
         <v>2742</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C51" t="s">
+        <v>560</v>
+      </c>
+      <c r="D51" t="s">
         <v>561</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>562</v>
-      </c>
-      <c r="E51" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -47778,16 +47745,16 @@
         <v>2743</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C52" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D52" t="s">
+        <v>564</v>
+      </c>
+      <c r="E52" t="s">
         <v>565</v>
-      </c>
-      <c r="E52" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -47795,16 +47762,16 @@
         <v>2744</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C53" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D53" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E53" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -47812,16 +47779,16 @@
         <v>2745</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C54" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -47829,13 +47796,13 @@
         <v>2747</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C55" t="s">
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E55" t="s">
         <v>179</v>
@@ -47846,13 +47813,13 @@
         <v>2750</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C56" t="s">
+        <v>572</v>
+      </c>
+      <c r="D56" t="s">
         <v>573</v>
-      </c>
-      <c r="D56" t="s">
-        <v>574</v>
       </c>
       <c r="E56" t="s">
         <v>348</v>
@@ -47863,13 +47830,13 @@
         <v>2751</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E57" t="s">
         <v>179</v>
@@ -47880,13 +47847,13 @@
         <v>2755</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C58" t="s">
+        <v>577</v>
+      </c>
+      <c r="D58" t="s">
         <v>578</v>
-      </c>
-      <c r="D58" t="s">
-        <v>579</v>
       </c>
       <c r="E58" t="s">
         <v>359</v>
@@ -47897,13 +47864,13 @@
         <v>2756</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C59" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D59" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E59" t="s">
         <v>359</v>
@@ -47914,16 +47881,16 @@
         <v>2760</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -47931,13 +47898,13 @@
         <v>2773</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E61" t="s">
         <v>31</v>
@@ -47948,10 +47915,10 @@
         <v>2794</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -47965,13 +47932,13 @@
         <v>2800</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C63" t="s">
         <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E63" t="s">
         <v>179</v>
@@ -47982,16 +47949,16 @@
         <v>2832</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D64" t="s">
+        <v>538</v>
+      </c>
+      <c r="E64" t="s">
         <v>539</v>
-      </c>
-      <c r="E64" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -47999,16 +47966,16 @@
         <v>2840</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C65" t="s">
         <v>38</v>
       </c>
       <c r="D65" t="s">
+        <v>589</v>
+      </c>
+      <c r="E65" t="s">
         <v>590</v>
-      </c>
-      <c r="E65" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -48016,16 +47983,16 @@
         <v>2844</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C66" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D66" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E66" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -48033,13 +48000,13 @@
         <v>2845</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C67" t="s">
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E67" t="s">
         <v>179</v>
@@ -48050,13 +48017,13 @@
         <v>2847</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E68" t="s">
         <v>179</v>
@@ -48067,13 +48034,13 @@
         <v>2848</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E69" t="s">
         <v>179</v>
@@ -48090,7 +48057,7 @@
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E70" t="s">
         <v>179</v>
@@ -48101,13 +48068,13 @@
         <v>2850</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E71" t="s">
         <v>179</v>
@@ -48118,10 +48085,10 @@
         <v>2861</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C72" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -48135,10 +48102,10 @@
         <v>2862</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C73" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -48152,13 +48119,13 @@
         <v>2863</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C74" t="s">
+        <v>604</v>
+      </c>
+      <c r="D74" t="s">
         <v>605</v>
-      </c>
-      <c r="D74" t="s">
-        <v>606</v>
       </c>
       <c r="E74" t="s">
         <v>179</v>
@@ -48178,7 +48145,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -48186,16 +48153,16 @@
         <v>2868</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D76" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -48203,16 +48170,16 @@
         <v>2869</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C77" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D77" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E77" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -48220,16 +48187,16 @@
         <v>2882</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C78" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D78" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E78" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -48237,16 +48204,16 @@
         <v>2883</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C79" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D79" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E79" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -48257,13 +48224,13 @@
         <v>352</v>
       </c>
       <c r="C80" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D80" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -48274,13 +48241,13 @@
         <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D81" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E81" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -48288,13 +48255,13 @@
         <v>2905</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C82" t="s">
         <v>48</v>
       </c>
       <c r="D82" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E82" t="s">
         <v>179</v>
@@ -48305,16 +48272,16 @@
         <v>2923</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D83" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E83" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -48322,13 +48289,13 @@
         <v>2924</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C84" t="s">
         <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E84" t="s">
         <v>179</v>
@@ -48339,13 +48306,13 @@
         <v>2925</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C85" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D85" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E85" t="s">
         <v>179</v>
@@ -48356,16 +48323,16 @@
         <v>2932</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C86" t="s">
+        <v>625</v>
+      </c>
+      <c r="D86" t="s">
         <v>626</v>
       </c>
-      <c r="D86" t="s">
-        <v>627</v>
-      </c>
       <c r="E86" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -48373,13 +48340,13 @@
         <v>2967</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C87" t="s">
         <v>48</v>
       </c>
       <c r="D87" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E87" t="s">
         <v>179</v>
@@ -48393,13 +48360,13 @@
         <v>280</v>
       </c>
       <c r="C88" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -48423,6 +48390,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C18F91D7223F543A26D229338988E26" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="330999fac9b76c699af57ca0493c8bc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68248bcb-19b6-401f-bbd7-5a13ca6706f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2803961d3a7828cc306084612340f00b" ns2:_="">
     <xsd:import namespace="68248bcb-19b6-401f-bbd7-5a13ca6706f5"/>
@@ -48519,15 +48495,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30D6388-66F3-4702-94B7-89C35254F680}">
   <ds:schemaRefs>
@@ -48544,6 +48511,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24914416-91A2-4256-B235-851C099380D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FD06382-31AF-479C-9154-70E13EA83B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48558,12 +48533,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24914416-91A2-4256-B235-851C099380D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/MDT/DienstenCatalogus/DienstendefinitieEDS.xlsx
+++ b/MDT/DienstenCatalogus/DienstendefinitieEDS.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\hjo20125\Git\ampersand-models\MDT\DienstenCatalogus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="5976" windowWidth="23052" windowHeight="3492" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-12" yWindow="5976" windowWidth="23052" windowHeight="3492" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Totaaloverzicht" sheetId="14" r:id="rId1"/>
@@ -23,11 +28,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Subsysteem per webdienst'!$A$2:$D$1000</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Totaaloverzicht!$A$2:$AE$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Webdiensten!$A$2:$Q$61</definedName>
-    <definedName name="fipnaam" localSheetId="7">PIDs!$D$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Totaaloverzicht!$A$2:$E$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Totaaloverzicht!$2:$3</definedName>
+    <definedName name="fipnaam" localSheetId="7">PIDs!$D$8</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -555,13 +560,6 @@
   </si>
   <si>
     <t>Schorsen (bromfiets, laag, normaal, hoog, verzamelaar)</t>
-  </si>
-  <si>
-    <t>30223111, 
-30223117, 
-30223116, 
-30223118,  
-30223108</t>
   </si>
   <si>
     <t>Aanmelden begeleider</t>
@@ -2970,6 +2968,13 @@
   </si>
   <si>
     <t>EDSOrdersoort</t>
+  </si>
+  <si>
+    <t>30223119, 
+30223117, 
+30223116, 
+30223118,  
+30223108</t>
   </si>
 </sst>
 </file>
@@ -3795,7 +3800,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
@@ -3827,14 +3832,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3872,9 +3880,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3909,7 +3917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3944,7 +3952,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4240,10 +4248,10 @@
     </row>
     <row r="2" spans="1:31" s="30" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="B2" s="112" t="s">
         <v>810</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>811</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>97</v>
@@ -4279,72 +4287,72 @@
         <v>32</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O2" s="35" t="s">
+        <v>806</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>807</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>808</v>
       </c>
-      <c r="Q2" s="35" t="s">
-        <v>809</v>
-      </c>
       <c r="R2" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>112</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U2" s="35" t="s">
+        <v>804</v>
+      </c>
+      <c r="V2" s="107" t="s">
+        <v>802</v>
+      </c>
+      <c r="W2" s="32" t="s">
+        <v>803</v>
+      </c>
+      <c r="X2" s="106" t="s">
         <v>805</v>
-      </c>
-      <c r="V2" s="107" t="s">
-        <v>803</v>
-      </c>
-      <c r="W2" s="32" t="s">
-        <v>804</v>
-      </c>
-      <c r="X2" s="106" t="s">
-        <v>806</v>
       </c>
       <c r="Y2" s="68" t="s">
         <v>0</v>
       </c>
       <c r="Z2" s="106" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AA2" s="113" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AB2" s="113" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AC2" s="113" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AD2" s="113" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AE2" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="29" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="109"/>
       <c r="C3" s="63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="89" t="s">
+        <v>463</v>
+      </c>
+      <c r="F3" s="89" t="s">
         <v>464</v>
-      </c>
-      <c r="F3" s="89" t="s">
-        <v>465</v>
       </c>
       <c r="G3" s="64"/>
       <c r="H3" s="16"/>
@@ -4374,25 +4382,25 @@
     </row>
     <row r="4" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="126" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B4" s="127" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C4" s="128" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D4" s="128" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E4" s="111" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F4" s="111" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G4" s="128" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H4" s="129" t="str">
         <f>IF($E4 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E4,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -4493,25 +4501,25 @@
     </row>
     <row r="5" spans="1:31" s="125" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="115" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F5" s="111" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G5" s="117" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H5" s="118" t="str">
         <f>IF($E5 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E5,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -4612,25 +4620,25 @@
     </row>
     <row r="6" spans="1:31" s="136" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="126" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C6" s="128" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D6" s="128" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E6" s="111" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F6" s="111" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="128" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H6" s="129" t="str">
         <f>IF($E6 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E6,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -4731,22 +4739,22 @@
     </row>
     <row r="7" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="115" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C7" s="117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D7" s="117" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F7" s="111" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G7" s="117"/>
       <c r="H7" s="118" t="str">
@@ -4848,22 +4856,22 @@
     </row>
     <row r="8" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="126" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B8" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C8" s="128" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D8" s="128" t="s">
         <v>126</v>
       </c>
       <c r="E8" s="111" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F8" s="111" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G8" s="128"/>
       <c r="H8" s="129" t="str">
@@ -4965,25 +4973,25 @@
     </row>
     <row r="9" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="115" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B9" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C9" s="117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D9" s="117" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E9" s="111" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F9" s="111" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G9" s="117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H9" s="118" t="str">
         <f>IF($E9 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E9,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -5084,22 +5092,22 @@
     </row>
     <row r="10" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="126" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B10" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C10" s="128" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D10" s="128" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F10" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G10" s="128"/>
       <c r="H10" s="129" t="str">
@@ -5201,19 +5209,19 @@
     </row>
     <row r="11" spans="1:31" s="125" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="115" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B11" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C11" s="117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D11" s="117" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E11" s="111" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F11" s="111" t="s">
         <v>167</v>
@@ -5301,7 +5309,7 @@
       </c>
       <c r="Z11" s="123" t="str">
         <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F11,Producten!$B$4:$B$983,0),Z$1))</f>
-        <v>30223111, 
+        <v>30223119, 
 30223117, 
 30223116, 
 30223118,  
@@ -5309,7 +5317,7 @@
       </c>
       <c r="AA11" s="124" t="str">
         <f>IF($F11 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F11,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v>30223111, 
+        <v>30223119, 
 30223117, 
 30223116, 
 30223118,  
@@ -5342,19 +5350,19 @@
     </row>
     <row r="12" spans="1:31" s="136" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="126" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B12" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C12" s="128" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D12" s="128" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F12" s="111" t="s">
         <v>167</v>
@@ -5442,7 +5450,7 @@
       </c>
       <c r="Z12" s="134" t="str">
         <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F12,Producten!$B$4:$B$983,0),Z$1))</f>
-        <v>30223111, 
+        <v>30223119, 
 30223117, 
 30223116, 
 30223118,  
@@ -5450,7 +5458,7 @@
       </c>
       <c r="AA12" s="135" t="str">
         <f>IF($F12 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F12,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v>30223111, 
+        <v>30223119, 
 30223117, 
 30223116, 
 30223118,  
@@ -5483,19 +5491,19 @@
     </row>
     <row r="13" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="115" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B13" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F13" s="111" t="s">
         <v>159</v>
@@ -5600,19 +5608,19 @@
     </row>
     <row r="14" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="126" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B14" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C14" s="128" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D14" s="128" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E14" s="111" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F14" s="111" t="s">
         <v>159</v>
@@ -5717,25 +5725,25 @@
     </row>
     <row r="15" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="115" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B15" s="116" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C15" s="117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E15" s="111" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F15" s="111" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G15" s="117" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H15" s="118" t="str">
         <f>IF($E15 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E15,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -5836,25 +5844,25 @@
     </row>
     <row r="16" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="126" t="s">
+        <v>791</v>
+      </c>
+      <c r="B16" s="127" t="s">
+        <v>812</v>
+      </c>
+      <c r="C16" s="128" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="128" t="s">
         <v>792</v>
       </c>
-      <c r="B16" s="127" t="s">
-        <v>813</v>
-      </c>
-      <c r="C16" s="128" t="s">
-        <v>342</v>
-      </c>
-      <c r="D16" s="128" t="s">
-        <v>793</v>
-      </c>
       <c r="E16" s="111" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F16" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G16" s="128" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H16" s="129" t="str">
         <f>IF($E16 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E16,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -5955,25 +5963,25 @@
     </row>
     <row r="17" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="115" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C17" s="117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E17" s="111" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F17" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G17" s="117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H17" s="118" t="str">
         <f>IF($E17 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E17,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -6074,25 +6082,25 @@
     </row>
     <row r="18" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="126" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B18" s="127" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C18" s="128" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D18" s="128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E18" s="111" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F18" s="111" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G18" s="128" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H18" s="129" t="str">
         <f>IF($E18 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E18,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -6193,25 +6201,25 @@
     </row>
     <row r="19" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="115" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B19" s="116" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C19" s="117" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E19" s="111" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F19" s="111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G19" s="117" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H19" s="118" t="str">
         <f>IF($E19 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E19,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -6312,25 +6320,25 @@
     </row>
     <row r="20" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="126" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B20" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C20" s="128" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D20" s="128" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E20" s="111" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F20" s="111" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G20" s="128" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H20" s="129" t="str">
         <f>IF($E20 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E20,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -6431,25 +6439,25 @@
     </row>
     <row r="21" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="115" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C21" s="117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D21" s="117" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E21" s="111" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F21" s="111" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G21" s="117" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H21" s="118" t="str">
         <f>IF($E21 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E21,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -6550,25 +6558,25 @@
     </row>
     <row r="22" spans="1:31" s="136" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="126" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B22" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C22" s="128" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D22" s="128" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E22" s="111" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F22" s="111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G22" s="128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H22" s="129" t="str">
         <f>IF($E22 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E22,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -6669,25 +6677,25 @@
     </row>
     <row r="23" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="115" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C23" s="117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D23" s="117" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E23" s="111" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F23" s="111" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G23" s="117" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H23" s="118" t="str">
         <f>IF($E23 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E23,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -6788,22 +6796,22 @@
     </row>
     <row r="24" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="126" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B24" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C24" s="128" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D24" s="128" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E24" s="111" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F24" s="111" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G24" s="128"/>
       <c r="H24" s="129" t="str">
@@ -6905,25 +6913,25 @@
     </row>
     <row r="25" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="115" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C25" s="117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D25" s="117" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E25" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F25" s="111" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G25" s="117" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H25" s="118" t="str">
         <f>IF($E25 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E25,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -7024,22 +7032,22 @@
     </row>
     <row r="26" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="126" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B26" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C26" s="128" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D26" s="128" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E26" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F26" s="111" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G26" s="128"/>
       <c r="H26" s="129" t="str">
@@ -7141,22 +7149,22 @@
     </row>
     <row r="27" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="115" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C27" s="117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D27" s="117" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E27" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F27" s="111" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G27" s="117"/>
       <c r="H27" s="118" t="str">
@@ -7258,25 +7266,25 @@
     </row>
     <row r="28" spans="1:31" s="136" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="126" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B28" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C28" s="128" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D28" s="128" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E28" s="111" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F28" s="111" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="128" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H28" s="129" t="str">
         <f>IF($E28 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E28,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -7377,22 +7385,22 @@
     </row>
     <row r="29" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="115" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B29" s="116" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C29" s="117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D29" s="117" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E29" s="111" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F29" s="111" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G29" s="117"/>
       <c r="H29" s="118" t="str">
@@ -7494,25 +7502,25 @@
     </row>
     <row r="30" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="126" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B30" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C30" s="128" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D30" s="128" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E30" s="111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F30" s="111" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G30" s="128" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H30" s="129" t="str">
         <f>IF($E30 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E30,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -7613,25 +7621,25 @@
     </row>
     <row r="31" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C31" s="117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D31" s="117" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E31" s="111" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F31" s="111" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G31" s="117" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H31" s="118" t="str">
         <f>IF($E31 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E31,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -7732,25 +7740,25 @@
     </row>
     <row r="32" spans="1:31" s="136" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="126" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B32" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C32" s="128" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D32" s="128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E32" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F32" s="111" t="s">
         <v>51</v>
       </c>
       <c r="G32" s="128" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H32" s="129" t="str">
         <f>IF($E32 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E32,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -7851,25 +7859,25 @@
     </row>
     <row r="33" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="115" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B33" s="116" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C33" s="117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D33" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E33" s="111" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F33" s="111" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G33" s="117" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H33" s="118" t="str">
         <f>IF($E33 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E33,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -7970,25 +7978,25 @@
     </row>
     <row r="34" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="126" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B34" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C34" s="128" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D34" s="128" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E34" s="111" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F34" s="111" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G34" s="128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H34" s="129" t="str">
         <f>IF($E34 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E34,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -8089,25 +8097,25 @@
     </row>
     <row r="35" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="115" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B35" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C35" s="117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D35" s="117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E35" s="111" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F35" s="111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G35" s="117" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H35" s="118" t="str">
         <f>IF($E35 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E35,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -8211,7 +8219,7 @@
         <v>133</v>
       </c>
       <c r="B36" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C36" s="128" t="s">
         <v>24</v>
@@ -8327,10 +8335,10 @@
     </row>
     <row r="37" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="115" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B37" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C37" s="117" t="s">
         <v>24</v>
@@ -8339,10 +8347,10 @@
         <v>131</v>
       </c>
       <c r="E37" s="111" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F37" s="111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G37" s="117" t="s">
         <v>22</v>
@@ -8446,10 +8454,10 @@
     </row>
     <row r="38" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="126" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B38" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C38" s="128" t="s">
         <v>24</v>
@@ -8458,13 +8466,13 @@
         <v>136</v>
       </c>
       <c r="E38" s="111" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F38" s="111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G38" s="128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H38" s="129" t="str">
         <f>IF($E38 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E38,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -8565,10 +8573,10 @@
     </row>
     <row r="39" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="115" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B39" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C39" s="117" t="s">
         <v>24</v>
@@ -8577,7 +8585,7 @@
         <v>138</v>
       </c>
       <c r="E39" s="111" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F39" s="111"/>
       <c r="G39" s="117" t="s">
@@ -8682,10 +8690,10 @@
     </row>
     <row r="40" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="126" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B40" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C40" s="128" t="s">
         <v>24</v>
@@ -8694,7 +8702,7 @@
         <v>137</v>
       </c>
       <c r="E40" s="111" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F40" s="111"/>
       <c r="G40" s="128" t="s">
@@ -8799,10 +8807,10 @@
     </row>
     <row r="41" spans="1:31" s="125" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="115" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B41" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C41" s="117" t="s">
         <v>24</v>
@@ -8811,7 +8819,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="111" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F41" s="111" t="s">
         <v>1</v>
@@ -8918,10 +8926,10 @@
     </row>
     <row r="42" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="126" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B42" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C42" s="128" t="s">
         <v>24</v>
@@ -8930,10 +8938,10 @@
         <v>126</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F42" s="111" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G42" s="128" t="s">
         <v>22</v>
@@ -9037,10 +9045,10 @@
     </row>
     <row r="43" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="115" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B43" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C43" s="117" t="s">
         <v>24</v>
@@ -9049,13 +9057,13 @@
         <v>130</v>
       </c>
       <c r="E43" s="111" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F43" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G43" s="117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H43" s="118" t="str">
         <f>IF($E43 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E43,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -9156,10 +9164,10 @@
     </row>
     <row r="44" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="126" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B44" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C44" s="128" t="s">
         <v>24</v>
@@ -9168,7 +9176,7 @@
         <v>127</v>
       </c>
       <c r="E44" s="111" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F44" s="111"/>
       <c r="G44" s="128" t="s">
@@ -9273,25 +9281,25 @@
     </row>
     <row r="45" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="115" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C45" s="117" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="117" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" s="111" t="s">
+        <v>284</v>
+      </c>
+      <c r="F45" s="111" t="s">
+        <v>278</v>
+      </c>
+      <c r="G45" s="117" t="s">
         <v>286</v>
-      </c>
-      <c r="E45" s="111" t="s">
-        <v>285</v>
-      </c>
-      <c r="F45" s="111" t="s">
-        <v>279</v>
-      </c>
-      <c r="G45" s="117" t="s">
-        <v>287</v>
       </c>
       <c r="H45" s="118" t="str">
         <f>IF($E45 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E45,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -9392,19 +9400,19 @@
     </row>
     <row r="46" spans="1:31" s="136" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="126" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B46" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C46" s="128" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="128" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E46" s="111" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F46" s="111" t="s">
         <v>167</v>
@@ -9494,7 +9502,7 @@
       </c>
       <c r="Z46" s="134" t="str">
         <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F46,Producten!$B$4:$B$983,0),Z$1))</f>
-        <v>30223111, 
+        <v>30223119, 
 30223117, 
 30223116, 
 30223118,  
@@ -9502,7 +9510,7 @@
       </c>
       <c r="AA46" s="135" t="str">
         <f>IF($F46 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F46,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v>30223111, 
+        <v>30223119, 
 30223117, 
 30223116, 
 30223118,  
@@ -9538,7 +9546,7 @@
         <v>165</v>
       </c>
       <c r="B47" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C47" s="117" t="s">
         <v>24</v>
@@ -9547,13 +9555,13 @@
         <v>125</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F47" s="111" t="s">
         <v>159</v>
       </c>
       <c r="G47" s="117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H47" s="118" t="str">
         <f>IF($E47 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E47,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -9654,10 +9662,10 @@
     </row>
     <row r="48" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="126" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B48" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C48" s="128" t="s">
         <v>24</v>
@@ -9666,7 +9674,7 @@
         <v>141</v>
       </c>
       <c r="E48" s="111" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F48" s="111"/>
       <c r="G48" s="128" t="s">
@@ -9771,10 +9779,10 @@
     </row>
     <row r="49" spans="1:31" s="125" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="115" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B49" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C49" s="117" t="s">
         <v>24</v>
@@ -9783,7 +9791,7 @@
         <v>140</v>
       </c>
       <c r="E49" s="111" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F49" s="111" t="s">
         <v>139</v>
@@ -9865,11 +9873,11 @@
       </c>
       <c r="Z49" s="123" t="str">
         <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F49,Producten!$B$4:$B$983,0),Z$1))</f>
-        <v>30110507</v>
+        <v>30221506</v>
       </c>
       <c r="AA49" s="124">
         <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F49,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v>30110507</v>
+        <v>30221506</v>
       </c>
       <c r="AB49" s="120" t="str">
         <f>IF($F49 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F49,Producten!$B$4:$B$983,0),AB$1))</f>
@@ -9890,25 +9898,25 @@
     </row>
     <row r="50" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="126" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B50" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C50" s="128" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="128" t="s">
+        <v>289</v>
+      </c>
+      <c r="E50" s="111" t="s">
+        <v>723</v>
+      </c>
+      <c r="F50" s="111" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" s="128" t="s">
         <v>290</v>
-      </c>
-      <c r="E50" s="111" t="s">
-        <v>724</v>
-      </c>
-      <c r="F50" s="111" t="s">
-        <v>289</v>
-      </c>
-      <c r="G50" s="128" t="s">
-        <v>291</v>
       </c>
       <c r="H50" s="129" t="str">
         <f>IF($E50 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E50,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -9984,11 +9992,11 @@
       </c>
       <c r="Z50" s="134" t="str">
         <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F50,Producten!$B$4:$B$983,0),Z$1))</f>
-        <v>30221204</v>
+        <v>30130203</v>
       </c>
       <c r="AA50" s="135">
         <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F50,Producten!$B$4:$B$983,0),AA$1))</f>
-        <v>30221204</v>
+        <v>30130203</v>
       </c>
       <c r="AB50" s="131" t="str">
         <f>IF($F50 = "", "", INDEX(Producten!$B$4:$AE$983,MATCH($F50,Producten!$B$4:$B$983,0),AB$1))</f>
@@ -10012,7 +10020,7 @@
         <v>128</v>
       </c>
       <c r="B51" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C51" s="117" t="s">
         <v>24</v>
@@ -10024,10 +10032,10 @@
         <v>128</v>
       </c>
       <c r="F51" s="111" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G51" s="117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H51" s="118" t="str">
         <f>IF($E51 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E51,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -10128,22 +10136,22 @@
     </row>
     <row r="52" spans="1:31" s="136" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="126" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B52" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C52" s="128" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="128" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E52" s="111" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F52" s="111" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G52" s="128" t="s">
         <v>146</v>
@@ -10247,25 +10255,25 @@
     </row>
     <row r="53" spans="1:31" s="125" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="115" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B53" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C53" s="117" t="s">
         <v>24</v>
       </c>
       <c r="D53" s="117" t="s">
+        <v>646</v>
+      </c>
+      <c r="E53" s="111" t="s">
+        <v>816</v>
+      </c>
+      <c r="F53" s="111" t="s">
+        <v>442</v>
+      </c>
+      <c r="G53" s="117" t="s">
         <v>647</v>
-      </c>
-      <c r="E53" s="111" t="s">
-        <v>817</v>
-      </c>
-      <c r="F53" s="111" t="s">
-        <v>443</v>
-      </c>
-      <c r="G53" s="117" t="s">
-        <v>648</v>
       </c>
       <c r="H53" s="118" t="str">
         <f>IF($E53 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E53,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -10366,25 +10374,25 @@
     </row>
     <row r="54" spans="1:31" s="136" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="126" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B54" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C54" s="128" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D54" s="128" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E54" s="111" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F54" s="111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G54" s="128" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H54" s="129" t="str">
         <f>IF($E54 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E54,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -10485,25 +10493,25 @@
     </row>
     <row r="55" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="115" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B55" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C55" s="117" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D55" s="117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E55" s="111" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F55" s="111" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G55" s="117" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H55" s="118" t="str">
         <f>IF($E55 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E55,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -10604,25 +10612,25 @@
     </row>
     <row r="56" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="126" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B56" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C56" s="128" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D56" s="128" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E56" s="111" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F56" s="111" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G56" s="128" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H56" s="129" t="str">
         <f>IF($E56 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E56,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -10723,25 +10731,25 @@
     </row>
     <row r="57" spans="1:31" s="125" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="115" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B57" s="116" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C57" s="117" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D57" s="117" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E57" s="111" t="s">
+        <v>409</v>
+      </c>
+      <c r="F57" s="111" t="s">
         <v>410</v>
       </c>
-      <c r="F57" s="111" t="s">
-        <v>411</v>
-      </c>
       <c r="G57" s="117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H57" s="118" t="str">
         <f>IF($E57 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E57,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -10842,25 +10850,25 @@
     </row>
     <row r="58" spans="1:31" s="136" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="126" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B58" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C58" s="128" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D58" s="128" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E58" s="111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F58" s="111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G58" s="128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H58" s="129" t="str">
         <f>IF($E58 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E58,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -10961,21 +10969,21 @@
     </row>
     <row r="59" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="126" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B59" s="127" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C59" s="149" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D59" s="128"/>
       <c r="E59" s="111" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F59" s="111"/>
       <c r="G59" s="128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H59" s="129" t="str">
         <f>IF($E59 = "","",INDEX(Webdiensten!$A$2:$AD$992,MATCH($E59,Webdiensten!$A$2:$A$991,0),H$1))</f>
@@ -11164,7 +11172,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="159" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D2" s="160"/>
       <c r="E2" s="160"/>
@@ -11352,7 +11360,7 @@
         <v>xMS werkorder</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L15" s="42">
         <v>15</v>
@@ -11384,7 +11392,7 @@
         <v>xMS/FVC</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H16" s="42">
         <v>14</v>
@@ -11394,7 +11402,7 @@
         <v>VMS</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L16" s="42">
         <v>16</v>
@@ -11417,7 +11425,7 @@
       </c>
       <c r="E17" s="42"/>
       <c r="K17" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L17" s="42">
         <v>17</v>
@@ -11432,7 +11440,7 @@
       <c r="C18" s="37"/>
       <c r="E18" s="1"/>
       <c r="K18" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L18" s="55">
         <v>18</v>
@@ -11609,7 +11617,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>122</v>
@@ -12209,7 +12217,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B32" s="73">
         <v>2971</v>
@@ -12229,7 +12237,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B33" s="73">
         <v>2175</v>
@@ -12249,7 +12257,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B34" s="73">
         <v>30</v>
@@ -12269,7 +12277,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" s="73">
         <v>2398</v>
@@ -12289,7 +12297,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B36" s="73">
         <v>2850</v>
@@ -12309,7 +12317,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B37" s="73">
         <v>2958</v>
@@ -27796,7 +27804,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>72</v>
@@ -27810,7 +27818,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="72" t="str">
         <f>IF($B3 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B3,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -27826,7 +27834,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="72" t="str">
         <f>IF($B4 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B4,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -27842,7 +27850,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" s="72" t="str">
         <f>IF($B5 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B5,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -27858,7 +27866,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="72" t="str">
         <f>IF($B6 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B6,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -27896,7 +27904,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="72" t="str">
         <f>IF($B8 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B8,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -27960,7 +27968,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="72" t="str">
         <f>IF($B12 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B12,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -27976,7 +27984,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="72" t="str">
         <f>IF($B13 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B13,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -27992,7 +28000,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" s="72" t="str">
         <f>IF($B14 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B14,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28008,7 +28016,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" s="72" t="str">
         <f>IF($B15 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B15,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28024,7 +28032,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" s="72" t="str">
         <f>IF($B16 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B16,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28056,7 +28064,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C18" s="72" t="str">
         <f>IF($B18 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B18,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28072,7 +28080,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C19" s="72" t="str">
         <f>IF($B19 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B19,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28104,7 +28112,7 @@
         <v>156</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="72" t="str">
         <f>IF($B21 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B21,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28120,7 +28128,7 @@
         <v>156</v>
       </c>
       <c r="B22" s="71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="72" t="str">
         <f>IF($B22 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B22,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28136,7 +28144,7 @@
         <v>156</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C23" s="72" t="str">
         <f>IF($B23 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B23,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28152,7 +28160,7 @@
         <v>156</v>
       </c>
       <c r="B24" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C24" s="72" t="str">
         <f>IF($B24 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B24,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28168,7 +28176,7 @@
         <v>156</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="72" t="str">
         <f>IF($B25 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B25,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28184,7 +28192,7 @@
         <v>157</v>
       </c>
       <c r="B26" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="72" t="str">
         <f>IF($B26 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B26,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28200,7 +28208,7 @@
         <v>157</v>
       </c>
       <c r="B27" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="72" t="str">
         <f>IF($B27 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B27,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28216,7 +28224,7 @@
         <v>157</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="72" t="str">
         <f>IF($B28 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B28,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28232,7 +28240,7 @@
         <v>157</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C29" s="72" t="str">
         <f>IF($B29 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B29,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28248,7 +28256,7 @@
         <v>157</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="72" t="str">
         <f>IF($B30 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B30,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28264,7 +28272,7 @@
         <v>157</v>
       </c>
       <c r="B31" s="71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" s="72" t="str">
         <f>IF($B31 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B31,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28280,7 +28288,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" s="72" t="str">
         <f>IF($B32 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B32,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28296,7 +28304,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C33" s="72" t="str">
         <f>IF($B33 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B33,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28312,7 +28320,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C34" s="72" t="str">
         <f>IF($B34 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B34,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28344,7 +28352,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="72" t="str">
         <f>IF($B36 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B36,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28360,7 +28368,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C37" s="72" t="str">
         <f>IF($B37 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B37,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28376,7 +28384,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C38" s="72" t="str">
         <f>IF($B38 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B38,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28392,7 +28400,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="72" t="str">
         <f>IF($B39 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B39,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28424,7 +28432,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C41" s="72" t="str">
         <f>IF($B41 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B41,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28440,7 +28448,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C42" s="72" t="str">
         <f>IF($B42 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B42,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28456,7 +28464,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C43" s="72" t="str">
         <f>IF($B43 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B43,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28488,7 +28496,7 @@
         <v>49</v>
       </c>
       <c r="B45" s="71" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="72" t="str">
         <f>IF($B45 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B45,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28504,7 +28512,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="71" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" s="72" t="str">
         <f>IF($B46 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B46,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28520,7 +28528,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C47" s="72" t="str">
         <f>IF($B47 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B47,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28536,7 +28544,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C48" s="72" t="str">
         <f>IF($B48 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B48,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28568,7 +28576,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C50" s="72" t="str">
         <f>IF($B50 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B50,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28600,7 +28608,7 @@
         <v>104</v>
       </c>
       <c r="B52" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="72" t="str">
         <f>IF($B52 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B52,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28632,7 +28640,7 @@
         <v>106</v>
       </c>
       <c r="B54" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C54" s="72" t="str">
         <f>IF($B54 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B54,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28648,7 +28656,7 @@
         <v>162</v>
       </c>
       <c r="B55" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C55" s="72" t="str">
         <f>IF($B55 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B55,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28664,7 +28672,7 @@
         <v>162</v>
       </c>
       <c r="B56" s="71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C56" s="72" t="str">
         <f>IF($B56 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B56,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28680,7 +28688,7 @@
         <v>162</v>
       </c>
       <c r="B57" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C57" s="72" t="str">
         <f>IF($B57 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B57,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28696,7 +28704,7 @@
         <v>162</v>
       </c>
       <c r="B58" s="71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C58" s="72" t="str">
         <f>IF($B58 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B58,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28712,7 +28720,7 @@
         <v>163</v>
       </c>
       <c r="B59" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C59" s="72" t="str">
         <f>IF($B59 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B59,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28728,7 +28736,7 @@
         <v>163</v>
       </c>
       <c r="B60" s="71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C60" s="72" t="str">
         <f>IF($B60 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B60,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28744,7 +28752,7 @@
         <v>163</v>
       </c>
       <c r="B61" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C61" s="72" t="str">
         <f>IF($B61 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B61,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28760,7 +28768,7 @@
         <v>163</v>
       </c>
       <c r="B62" s="71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C62" s="72" t="str">
         <f>IF($B62 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B62,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28773,10 +28781,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C63" s="72" t="str">
         <f>IF($B63 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B63,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28789,10 +28797,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C64" s="72" t="str">
         <f>IF($B64 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B64,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28805,10 +28813,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C65" s="72" t="str">
         <f>IF($B65 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B65,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28821,10 +28829,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C66" s="72" t="str">
         <f>IF($B66 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B66,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -28837,10 +28845,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="62" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C67" s="72" t="str">
         <f>IF($B67 = "","",INDEX(Subsystemen!$A$2:$AD$1000,MATCH($B67,Subsystemen!$A$2:$A$1000,0),C$1))</f>
@@ -40083,8 +40091,8 @@
   </sheetPr>
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
@@ -40125,7 +40133,7 @@
         <v>99</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>100</v>
@@ -40140,16 +40148,16 @@
         <v>121</v>
       </c>
       <c r="I1" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>189</v>
-      </c>
       <c r="K1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>192</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>193</v>
       </c>
       <c r="M1" s="16" t="s">
         <v>112</v>
@@ -40161,28 +40169,28 @@
         <v>102</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>103</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="24" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="22" t="s">
@@ -40192,23 +40200,23 @@
         <v>115</v>
       </c>
       <c r="G2" s="80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="83" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N2" s="22" t="s">
         <v>116</v>
@@ -40226,10 +40234,10 @@
     </row>
     <row r="3" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>22</v>
@@ -40277,21 +40285,21 @@
         <v>7</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>22</v>
@@ -40339,21 +40347,21 @@
         <v>7</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>22</v>
@@ -40368,7 +40376,7 @@
         <v>110</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H5" s="78" t="s">
         <v>31</v>
@@ -40398,13 +40406,13 @@
         <v>25</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="R5" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="T5" s="6" t="s">
         <v>1</v>
@@ -40412,10 +40420,10 @@
     </row>
     <row r="6" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>22</v>
@@ -40463,21 +40471,21 @@
         <v>53</v>
       </c>
       <c r="R6" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="S6" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>472</v>
-      </c>
       <c r="T6" s="90" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>22</v>
@@ -40486,16 +40494,16 @@
         <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="85" t="s">
-        <v>172</v>
-      </c>
       <c r="G7" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="85" t="s">
         <v>25</v>
@@ -40510,7 +40518,7 @@
         <v>14</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>22</v>
@@ -40522,24 +40530,24 @@
         <v>14</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>22</v>
@@ -40563,7 +40571,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K8" s="74" t="s">
         <v>7</v>
@@ -40575,7 +40583,7 @@
         <v>161</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>25</v>
@@ -40587,21 +40595,21 @@
         <v>66</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="9" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>22</v>
@@ -40649,21 +40657,21 @@
         <v>7</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>22</v>
@@ -40675,13 +40683,13 @@
         <v>23</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>25</v>
@@ -40699,7 +40707,7 @@
         <v>161</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>14</v>
@@ -40708,13 +40716,13 @@
         <v>14</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R10" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="T10" s="6" t="s">
         <v>139</v>
@@ -40722,10 +40730,10 @@
     </row>
     <row r="11" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>22</v>
@@ -40749,7 +40757,7 @@
         <v>14</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>7</v>
@@ -40761,7 +40769,7 @@
         <v>65</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>25</v>
@@ -40773,13 +40781,13 @@
         <v>66</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -40805,13 +40813,13 @@
         <v>154</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K12" s="74" t="s">
         <v>7</v>
@@ -40823,7 +40831,7 @@
         <v>161</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>25</v>
@@ -40832,21 +40840,21 @@
         <v>25</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>160</v>
@@ -40861,19 +40869,19 @@
         <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>154</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K13" s="74" t="s">
         <v>7</v>
@@ -40894,21 +40902,21 @@
         <v>25</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>160</v>
@@ -40956,21 +40964,21 @@
         <v>14</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>160</v>
@@ -40988,10 +40996,10 @@
         <v>110</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>25</v>
@@ -41000,7 +41008,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>25</v>
@@ -41009,7 +41017,7 @@
         <v>161</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>14</v>
@@ -41018,21 +41026,21 @@
         <v>14</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>160</v>
@@ -41085,12 +41093,12 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>160</v>
@@ -41117,7 +41125,7 @@
         <v>14</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>7</v>
@@ -41129,7 +41137,7 @@
         <v>161</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>25</v>
@@ -41141,18 +41149,18 @@
         <v>164</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>160</v>
@@ -41179,7 +41187,7 @@
         <v>14</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>7</v>
@@ -41203,18 +41211,18 @@
         <v>164</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="100" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B19" s="100" t="s">
         <v>160</v>
@@ -41232,10 +41240,10 @@
         <v>110</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H19" s="100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I19" s="100" t="s">
         <v>25</v>
@@ -41244,7 +41252,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L19" s="100" t="s">
         <v>25</v>
@@ -41253,7 +41261,7 @@
         <v>161</v>
       </c>
       <c r="N19" s="100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O19" s="100" t="s">
         <v>14</v>
@@ -41262,17 +41270,17 @@
         <v>14</v>
       </c>
       <c r="Q19" s="100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R19" s="100"/>
       <c r="S19" s="100"/>
       <c r="T19" s="100" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>160</v>
@@ -41290,10 +41298,10 @@
         <v>110</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>14</v>
@@ -41311,7 +41319,7 @@
         <v>161</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>25</v>
@@ -41320,16 +41328,16 @@
         <v>25</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -41352,10 +41360,10 @@
         <v>110</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>25</v>
@@ -41364,7 +41372,7 @@
         <v>14</v>
       </c>
       <c r="K21" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>25</v>
@@ -41373,7 +41381,7 @@
         <v>161</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>14</v>
@@ -41382,13 +41390,13 @@
         <v>14</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T21" s="6" t="s">
         <v>128</v>
@@ -41396,13 +41404,13 @@
     </row>
     <row r="22" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D22" s="93">
         <v>2822</v>
@@ -41423,7 +41431,7 @@
         <v>14</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K22" s="78" t="s">
         <v>7</v>
@@ -41435,7 +41443,7 @@
         <v>161</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>25</v>
@@ -41447,24 +41455,24 @@
         <v>164</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D23" s="92">
         <v>2822</v>
@@ -41485,7 +41493,7 @@
         <v>14</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>7</v>
@@ -41497,7 +41505,7 @@
         <v>161</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>25</v>
@@ -41509,21 +41517,21 @@
         <v>164</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="90" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>22</v>
@@ -41559,7 +41567,7 @@
         <v>161</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>25</v>
@@ -41568,17 +41576,17 @@
         <v>25</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="90" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="90" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>34</v>
@@ -41596,10 +41604,10 @@
         <v>110</v>
       </c>
       <c r="G25" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>25</v>
@@ -41617,7 +41625,7 @@
         <v>111</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>14</v>
@@ -41626,27 +41634,27 @@
         <v>14</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T25" s="90" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D26" s="92">
         <v>2738</v>
@@ -41658,10 +41666,10 @@
         <v>110</v>
       </c>
       <c r="G26" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>25</v>
@@ -41679,7 +41687,7 @@
         <v>111</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>14</v>
@@ -41688,21 +41696,21 @@
         <v>14</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T26" s="90" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>34</v>
@@ -41720,10 +41728,10 @@
         <v>110</v>
       </c>
       <c r="G27" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>25</v>
@@ -41741,7 +41749,7 @@
         <v>111</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>14</v>
@@ -41750,21 +41758,21 @@
         <v>14</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T27" s="90" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>34</v>
@@ -41812,27 +41820,27 @@
         <v>14</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T28" s="90" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D29" s="92">
         <v>2718</v>
@@ -41874,21 +41882,21 @@
         <v>14</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="T29" s="90" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>34</v>
@@ -41936,21 +41944,21 @@
         <v>14</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R30" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="S30" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="S30" s="6" t="s">
-        <v>693</v>
-      </c>
       <c r="T30" s="90" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>34</v>
@@ -41977,7 +41985,7 @@
         <v>14</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>7</v>
@@ -41998,42 +42006,42 @@
         <v>14</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R31" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="S31" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="S31" s="6" t="s">
-        <v>478</v>
-      </c>
       <c r="T31" s="90" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D32" s="92">
         <v>2718</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>25</v>
@@ -42048,7 +42056,7 @@
         <v>14</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>22</v>
@@ -42060,42 +42068,42 @@
         <v>14</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="T32" s="90" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D33" s="92">
         <v>2718</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G33" s="81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>25</v>
@@ -42110,7 +42118,7 @@
         <v>14</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>22</v>
@@ -42122,21 +42130,21 @@
         <v>14</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="T33" s="90" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
@@ -42154,10 +42162,10 @@
         <v>110</v>
       </c>
       <c r="G34" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>25</v>
@@ -42175,7 +42183,7 @@
         <v>111</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>14</v>
@@ -42184,21 +42192,21 @@
         <v>14</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>34</v>
@@ -42216,10 +42224,10 @@
         <v>110</v>
       </c>
       <c r="G35" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>25</v>
@@ -42237,7 +42245,7 @@
         <v>111</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>14</v>
@@ -42246,27 +42254,27 @@
         <v>14</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D36" s="92">
         <v>2718</v>
@@ -42278,10 +42286,10 @@
         <v>110</v>
       </c>
       <c r="G36" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>25</v>
@@ -42299,7 +42307,7 @@
         <v>111</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>14</v>
@@ -42308,21 +42316,21 @@
         <v>14</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>34</v>
@@ -42370,21 +42378,21 @@
         <v>14</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R37" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="S37" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="S37" s="6" t="s">
-        <v>480</v>
-      </c>
       <c r="T37" s="90" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>34</v>
@@ -42432,42 +42440,42 @@
         <v>14</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R38" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T38" s="90" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D39" s="92">
         <v>2718</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F39" s="85" t="s">
         <v>110</v>
       </c>
       <c r="G39" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>25</v>
@@ -42485,7 +42493,7 @@
         <v>111</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>14</v>
@@ -42494,23 +42502,23 @@
         <v>14</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="90" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D40" s="92">
         <v>2718</v>
@@ -42531,7 +42539,7 @@
         <v>14</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>7</v>
@@ -42555,24 +42563,24 @@
         <v>164</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D41" s="92">
         <v>2718</v>
@@ -42593,7 +42601,7 @@
         <v>14</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>7</v>
@@ -42617,18 +42625,18 @@
         <v>164</v>
       </c>
       <c r="R41" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B42" s="84" t="s">
         <v>34</v>
@@ -42646,10 +42654,10 @@
         <v>110</v>
       </c>
       <c r="G42" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H42" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I42" s="84" t="s">
         <v>25</v>
@@ -42667,7 +42675,7 @@
         <v>111</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>14</v>
@@ -42676,21 +42684,21 @@
         <v>14</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="T42" s="94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>34</v>
@@ -42708,10 +42716,10 @@
         <v>110</v>
       </c>
       <c r="G43" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>25</v>
@@ -42729,7 +42737,7 @@
         <v>111</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O43" s="6" t="s">
         <v>14</v>
@@ -42738,21 +42746,21 @@
         <v>14</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T43" s="90" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>34</v>
@@ -42770,10 +42778,10 @@
         <v>110</v>
       </c>
       <c r="G44" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>25</v>
@@ -42791,7 +42799,7 @@
         <v>111</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>14</v>
@@ -42800,21 +42808,21 @@
         <v>14</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R44" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T44" s="90" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="90" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>34</v>
@@ -42832,10 +42840,10 @@
         <v>110</v>
       </c>
       <c r="G45" s="81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>25</v>
@@ -42862,21 +42870,21 @@
         <v>14</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R45" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T45" s="90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="90" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>34</v>
@@ -42903,7 +42911,7 @@
         <v>14</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>7</v>
@@ -42924,21 +42932,21 @@
         <v>14</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R46" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T46" s="90" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="90" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>34</v>
@@ -42965,7 +42973,7 @@
         <v>14</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>7</v>
@@ -42986,21 +42994,21 @@
         <v>14</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R47" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T47" s="90" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>34</v>
@@ -43051,27 +43059,27 @@
         <v>36</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="99" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B49" s="100" t="s">
         <v>34</v>
       </c>
       <c r="C49" s="101" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D49" s="102" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E49" s="100" t="s">
         <v>23</v>
@@ -43080,10 +43088,10 @@
         <v>110</v>
       </c>
       <c r="G49" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H49" s="100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I49" s="100" t="s">
         <v>25</v>
@@ -43110,23 +43118,23 @@
         <v>14</v>
       </c>
       <c r="Q49" s="100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R49" s="100"/>
       <c r="S49" s="100"/>
       <c r="T49" s="99" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="99" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B50" s="100" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="101" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D50" s="102">
         <v>2722</v>
@@ -43138,10 +43146,10 @@
         <v>110</v>
       </c>
       <c r="G50" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H50" s="100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I50" s="100" t="s">
         <v>25</v>
@@ -43168,27 +43176,27 @@
         <v>14</v>
       </c>
       <c r="Q50" s="100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R50" s="100" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S50" s="100" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="T50" s="99" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="104" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="99" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B51" s="100" t="s">
         <v>34</v>
       </c>
       <c r="C51" s="101" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D51" s="102">
         <v>2722</v>
@@ -43200,10 +43208,10 @@
         <v>110</v>
       </c>
       <c r="G51" s="103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H51" s="100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I51" s="100" t="s">
         <v>25</v>
@@ -43230,21 +43238,21 @@
         <v>14</v>
       </c>
       <c r="Q51" s="100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R51" s="100" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="S51" s="100" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="T51" s="99" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>34</v>
@@ -43295,18 +43303,18 @@
         <v>36</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S52" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="90" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>34</v>
@@ -43324,10 +43332,10 @@
         <v>110</v>
       </c>
       <c r="G53" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>25</v>
@@ -43345,7 +43353,7 @@
         <v>111</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>14</v>
@@ -43354,27 +43362,27 @@
         <v>14</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="S53" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T53" s="90" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="90" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C54" s="74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D54" s="92">
         <v>2769</v>
@@ -43386,10 +43394,10 @@
         <v>110</v>
       </c>
       <c r="G54" s="97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>14</v>
@@ -43407,7 +43415,7 @@
         <v>111</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O54" s="6" t="s">
         <v>25</v>
@@ -43416,21 +43424,21 @@
         <v>14</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S54" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T54" s="90" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="90" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>34</v>
@@ -43448,10 +43456,10 @@
         <v>110</v>
       </c>
       <c r="G55" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>14</v>
@@ -43469,7 +43477,7 @@
         <v>111</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>25</v>
@@ -43478,21 +43486,21 @@
         <v>14</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T55" s="90" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="90" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>34</v>
@@ -43540,21 +43548,21 @@
         <v>14</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T56" s="90" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="90" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>34</v>
@@ -43602,21 +43610,21 @@
         <v>14</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="S57" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T57" s="90" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>34</v>
@@ -43643,7 +43651,7 @@
         <v>14</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="K58" s="6" t="s">
         <v>7</v>
@@ -43667,18 +43675,18 @@
         <v>66</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="T58" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="90" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>34</v>
@@ -43696,10 +43704,10 @@
         <v>110</v>
       </c>
       <c r="G59" s="81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>14</v>
@@ -43726,42 +43734,42 @@
         <v>25</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="T59" s="90" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="90" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C60" s="74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D60" s="92">
         <v>2718</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F60" s="85" t="s">
         <v>110</v>
       </c>
       <c r="G60" s="81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>25</v>
@@ -43779,7 +43787,7 @@
         <v>111</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O60" s="6" t="s">
         <v>14</v>
@@ -43788,17 +43796,17 @@
         <v>14</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
       <c r="T60" s="90" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="90" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>34</v>
@@ -43816,10 +43824,10 @@
         <v>110</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>14</v>
@@ -43837,7 +43845,7 @@
         <v>111</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="6" t="s">
         <v>14</v>
@@ -43846,21 +43854,21 @@
         <v>25</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R61" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="S61" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="T61" s="90" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="147" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B62" s="77" t="s">
         <v>34</v>
@@ -43878,10 +43886,10 @@
         <v>7</v>
       </c>
       <c r="G62" s="77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H62" s="77" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I62" s="77" t="s">
         <v>25</v>
@@ -43938,8 +43946,8 @@
   </sheetPr>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43966,7 +43974,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>3</v>
@@ -43992,79 +44000,79 @@
         <v>17</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>851</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>852</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>853</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G2" s="27"/>
       <c r="H2" s="27" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>856</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>857</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>858</v>
-      </c>
       <c r="M2" s="25" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>862</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>863</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="27" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K3" s="27"/>
       <c r="L3" s="27" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -44073,13 +44081,13 @@
         <v>BGRRegisterCoach</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" s="66">
         <v>0</v>
@@ -44108,7 +44116,7 @@
         <v>7</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -44120,10 +44128,10 @@
         <v>132</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" s="66">
         <v>35</v>
@@ -44143,7 +44151,7 @@
         <v>3813</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K5" s="48">
         <v>20</v>
@@ -44161,13 +44169,13 @@
         <v>DEM-BED</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E6" s="75">
         <v>0</v>
@@ -44196,7 +44204,7 @@
         <v>7</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -44205,13 +44213,13 @@
         <v>DEM-BUR</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="E7" s="66">
         <v>0</v>
@@ -44240,7 +44248,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -44249,13 +44257,13 @@
         <v>DEM-OVE</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E8" s="75">
         <v>0</v>
@@ -44284,21 +44292,21 @@
         <v>7</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="D9" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>204</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>205</v>
       </c>
       <c r="F9" s="157" t="str">
         <f t="shared" si="1"/>
@@ -44333,13 +44341,13 @@
         <v>DTS</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>444</v>
-      </c>
       <c r="D10" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E10" s="75">
         <v>9.83</v>
@@ -44359,7 +44367,7 @@
         <v>3927</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K10" s="76">
         <v>20</v>
@@ -44368,7 +44376,7 @@
         <v>18</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -44412,7 +44420,7 @@
         <v>18</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -44421,13 +44429,13 @@
         <v>EMC</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E12" s="75">
         <v>0</v>
@@ -44456,7 +44464,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -44500,7 +44508,7 @@
         <v>7</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -44509,23 +44517,23 @@
         <v>GUR</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E14" s="75">
         <v>4.5</v>
       </c>
       <c r="F14" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>30221204</v>
+        <v>30130203</v>
       </c>
       <c r="G14" s="76">
-        <v>30221204</v>
+        <v>30130203</v>
       </c>
       <c r="H14" s="157" t="str">
         <f t="shared" si="1"/>
@@ -44535,7 +44543,7 @@
         <v>3958</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K14" s="48">
         <v>20</v>
@@ -44544,7 +44552,7 @@
         <v>18</v>
       </c>
       <c r="M14" s="26" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -44553,13 +44561,13 @@
         <v>IVS-INZ</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E15" s="66">
         <v>4.5</v>
@@ -44579,7 +44587,7 @@
         <v>2396</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K15" s="48">
         <v>20</v>
@@ -44597,13 +44605,13 @@
         <v>IVS-REC-STAT</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E16" s="75">
         <v>1.95</v>
@@ -44623,16 +44631,16 @@
         <v>3934</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K16" s="48">
         <v>20</v>
       </c>
       <c r="L16" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -44641,13 +44649,13 @@
         <v>IVS-SHP-0001</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E17" s="75">
         <v>0</v>
@@ -44667,16 +44675,16 @@
         <v>3853</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K17" s="48">
         <v>20</v>
       </c>
       <c r="L17" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -44685,13 +44693,13 @@
         <v>IVS-SHP-0002</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E18" s="75">
         <v>0</v>
@@ -44711,16 +44719,16 @@
         <v>3854</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K18" s="48">
         <v>20</v>
       </c>
       <c r="L18" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -44729,13 +44737,13 @@
         <v>IVS-SHP-0003</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>412</v>
       </c>
       <c r="E19" s="75">
         <v>0</v>
@@ -44755,16 +44763,16 @@
         <v>3855</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K19" s="48">
         <v>20</v>
       </c>
       <c r="L19" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -44773,13 +44781,13 @@
         <v>IVS-SHP-0004</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E20" s="75">
         <v>0</v>
@@ -44799,16 +44807,16 @@
         <v>3856</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K20" s="48">
         <v>20</v>
       </c>
       <c r="L20" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -44817,13 +44825,13 @@
         <v>IVS-VL-BVO</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>385</v>
       </c>
       <c r="E21" s="75">
         <v>4.9000000000000004</v>
@@ -44843,16 +44851,16 @@
         <v>3470</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K21" s="76">
         <v>20</v>
       </c>
       <c r="L21" s="76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -44861,13 +44869,13 @@
         <v>IVS-VL-DTL</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>397</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E22" s="75">
         <v>90</v>
@@ -44887,16 +44895,16 @@
         <v>3832</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K22" s="48">
         <v>20</v>
       </c>
       <c r="L22" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M22" s="115" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -44905,13 +44913,13 @@
         <v>IVS-VL-DTL-RTL</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>403</v>
       </c>
       <c r="E23" s="75">
         <v>90</v>
@@ -44931,16 +44939,16 @@
         <v>2417</v>
       </c>
       <c r="J23" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K23" s="48">
         <v>20</v>
       </c>
       <c r="L23" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M23" s="115" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -44949,13 +44957,13 @@
         <v>IVS-VL-FGV</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="E24" s="75">
         <v>0</v>
@@ -44975,16 +44983,16 @@
         <v>3844</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K24" s="48">
         <v>20</v>
       </c>
       <c r="L24" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -45007,13 +45015,13 @@
         <v>IVS-VR</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26" s="66">
         <v>4.9000000000000004</v>
@@ -45033,7 +45041,7 @@
         <v>3917</v>
       </c>
       <c r="J26" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K26" s="48">
         <v>20</v>
@@ -45042,7 +45050,7 @@
         <v>18</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="145" customFormat="1" x14ac:dyDescent="0.3">
@@ -45051,13 +45059,13 @@
         <v>IVS-VR-REC</v>
       </c>
       <c r="B27" s="141" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D27" s="141" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E27" s="142">
         <v>1.95</v>
@@ -45077,7 +45085,7 @@
         <v>3936</v>
       </c>
       <c r="J27" s="143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K27" s="143">
         <v>20</v>
@@ -45095,13 +45103,13 @@
         <v>IVS-VRZ</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="E28" s="75">
         <v>4.9000000000000004</v>
@@ -45121,16 +45129,16 @@
         <v>3917</v>
       </c>
       <c r="J28" s="76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K28" s="76">
         <v>20</v>
       </c>
       <c r="L28" s="76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="145" customFormat="1" x14ac:dyDescent="0.3">
@@ -45139,13 +45147,13 @@
         <v>IVS-VRZ-REC</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D29" s="141" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E29" s="146">
         <v>0</v>
@@ -45165,13 +45173,13 @@
         <v>3936</v>
       </c>
       <c r="J29" s="143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K29" s="143">
         <v>20</v>
       </c>
       <c r="L29" s="143" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M29" s="144" t="s">
         <v>7</v>
@@ -45183,13 +45191,13 @@
         <v>KCB</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E30" s="75">
         <v>2.9</v>
@@ -45218,7 +45226,7 @@
         <v>7</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -45227,13 +45235,13 @@
         <v>MIL-CTS</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E31" s="75">
         <v>0</v>
@@ -45262,7 +45270,7 @@
         <v>7</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -45271,13 +45279,13 @@
         <v>MIL-OTS</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E32" s="75">
         <v>0</v>
@@ -45306,7 +45314,7 @@
         <v>7</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -45315,13 +45323,13 @@
         <v>NAP</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E33" s="75">
         <v>0</v>
@@ -45341,16 +45349,16 @@
         <v>4216</v>
       </c>
       <c r="J33" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K33" s="48">
         <v>21</v>
       </c>
       <c r="L33" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -45359,13 +45367,13 @@
         <v>OTT-OPV</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E34" s="75">
         <v>5</v>
@@ -45394,7 +45402,7 @@
         <v>7</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -45403,13 +45411,13 @@
         <v>OTT-WIJZ</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E35" s="75">
         <v>0</v>
@@ -45438,7 +45446,7 @@
         <v>7</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -45447,13 +45455,13 @@
         <v>OVIZ</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="E36" s="75">
         <v>0.14000000000000001</v>
@@ -45473,16 +45481,16 @@
         <v>3783</v>
       </c>
       <c r="J36" s="76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K36" s="76">
         <v>20</v>
       </c>
       <c r="L36" s="76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M36" s="26" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -45491,13 +45499,13 @@
         <v>RBCZ</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E37" s="75">
         <v>0.14000000000000001</v>
@@ -45517,16 +45525,16 @@
         <v>3784</v>
       </c>
       <c r="J37" s="76" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K37" s="76">
         <v>20</v>
       </c>
       <c r="L37" s="76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M37" s="26" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -45535,13 +45543,13 @@
         <v>REC-VIN</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E38" s="75">
         <v>0</v>
@@ -45564,7 +45572,7 @@
       <c r="K38" s="48"/>
       <c r="L38" s="48"/>
       <c r="M38" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -45576,7 +45584,7 @@
         <v>159</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>164</v>
@@ -45616,7 +45624,7 @@
         <v>167</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>164</v>
@@ -45626,14 +45634,14 @@
       </c>
       <c r="F40" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>30223111, 
+        <v>30223119, 
 30223117, 
 30223116, 
 30223118,  
 30223108</v>
       </c>
       <c r="G40" s="50" t="s">
-        <v>168</v>
+        <v>868</v>
       </c>
       <c r="H40" s="157" t="str">
         <f t="shared" si="1"/>
@@ -45644,10 +45652,10 @@
 -</v>
       </c>
       <c r="I40" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="J40" s="48" t="s">
         <v>448</v>
-      </c>
-      <c r="J40" s="48" t="s">
-        <v>449</v>
       </c>
       <c r="K40" s="48">
         <v>20</v>
@@ -45665,10 +45673,10 @@
         <v>SCH6</v>
       </c>
       <c r="B41" s="151" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C41" s="152" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D41" s="151" t="s">
         <v>164</v>
@@ -45678,10 +45686,10 @@
       </c>
       <c r="F41" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>30223111</v>
+        <v>30223119</v>
       </c>
       <c r="G41" s="154">
-        <v>30223111</v>
+        <v>30223119</v>
       </c>
       <c r="H41" s="157" t="str">
         <f t="shared" si="1"/>
@@ -45691,7 +45699,7 @@
         <v>3925</v>
       </c>
       <c r="J41" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K41" s="155">
         <v>20</v>
@@ -45707,10 +45715,10 @@
         <v>SCH2</v>
       </c>
       <c r="B42" s="151" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C42" s="152" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D42" s="151" t="s">
         <v>164</v>
@@ -45733,7 +45741,7 @@
         <v>3923</v>
       </c>
       <c r="J42" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K42" s="155">
         <v>20</v>
@@ -45749,10 +45757,10 @@
         <v>SCH1</v>
       </c>
       <c r="B43" s="151" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C43" s="152" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D43" s="151" t="s">
         <v>164</v>
@@ -45775,7 +45783,7 @@
         <v>3922</v>
       </c>
       <c r="J43" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K43" s="155">
         <v>20</v>
@@ -45791,10 +45799,10 @@
         <v>SCH4</v>
       </c>
       <c r="B44" s="151" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C44" s="152" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D44" s="151" t="s">
         <v>164</v>
@@ -45817,7 +45825,7 @@
         <v>3924</v>
       </c>
       <c r="J44" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K44" s="155">
         <v>20</v>
@@ -45833,10 +45841,10 @@
         <v>SCH3</v>
       </c>
       <c r="B45" s="151" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C45" s="152" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D45" s="151" t="s">
         <v>164</v>
@@ -45859,7 +45867,7 @@
         <v>7</v>
       </c>
       <c r="J45" s="155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K45" s="155">
         <v>20</v>
@@ -45878,7 +45886,7 @@
         <v>51</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>36</v>
@@ -45910,7 +45918,7 @@
         <v>7</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -45922,7 +45930,7 @@
         <v>37</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>36</v>
@@ -45954,7 +45962,7 @@
         <v>7</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -45966,20 +45974,20 @@
         <v>139</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E48" s="66">
         <v>2.99</v>
       </c>
       <c r="F48" s="157" t="str">
         <f t="shared" si="1"/>
-        <v>30110507</v>
+        <v>30221506</v>
       </c>
       <c r="G48" s="48">
-        <v>30110507</v>
+        <v>30221506</v>
       </c>
       <c r="H48" s="157" t="str">
         <f t="shared" si="1"/>
@@ -45989,7 +45997,7 @@
         <v>4218</v>
       </c>
       <c r="J48" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K48" s="48">
         <v>20</v>
@@ -45998,7 +46006,7 @@
         <v>18</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -46007,13 +46015,13 @@
         <v>VVB-OPV</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E49" s="75">
         <v>0</v>
@@ -46042,7 +46050,7 @@
         <v>7</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -46051,13 +46059,13 @@
         <v>VVB-VERW</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E50" s="75">
         <v>0</v>
@@ -46086,7 +46094,7 @@
         <v>7</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -46095,13 +46103,13 @@
         <v>VVK-KEN-TEN-BED</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E51" s="75">
         <v>31.5</v>
@@ -46130,7 +46138,7 @@
         <v>7</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -46139,13 +46147,13 @@
         <v>VVK-KEN-TEN-BUR</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52" s="28">
         <v>31.5</v>
@@ -46165,7 +46173,7 @@
         <v>3902</v>
       </c>
       <c r="J52" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K52" s="48">
         <v>20</v>
@@ -46174,7 +46182,7 @@
         <v>18</v>
       </c>
       <c r="M52" s="8" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -46183,13 +46191,13 @@
         <v>VVK-OPP-BUR</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E53" s="75">
         <v>9.6999999999999993</v>
@@ -46209,7 +46217,7 @@
         <v>4227</v>
       </c>
       <c r="J53" s="76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K53" s="48">
         <v>20</v>
@@ -46218,7 +46226,7 @@
         <v>18</v>
       </c>
       <c r="M53" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -46227,13 +46235,13 @@
         <v>VVK-TEN-BED</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>427</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>428</v>
       </c>
       <c r="E54" s="75">
         <v>1</v>
@@ -46262,7 +46270,7 @@
         <v>7</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -46271,13 +46279,13 @@
         <v>VVK-TEN-BUR</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="E55" s="28">
         <v>1</v>
@@ -46297,7 +46305,7 @@
         <v>3903</v>
       </c>
       <c r="J55" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K55" s="48">
         <v>20</v>
@@ -46306,7 +46314,7 @@
         <v>18</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -46315,10 +46323,10 @@
         <v>VVKB</v>
       </c>
       <c r="B56" s="138" t="s">
+        <v>831</v>
+      </c>
+      <c r="C56" s="138" t="s">
         <v>832</v>
-      </c>
-      <c r="C56" s="138" t="s">
-        <v>833</v>
       </c>
       <c r="D56" s="138"/>
       <c r="E56" s="138"/>
@@ -46333,7 +46341,7 @@
       <c r="K56" s="139"/>
       <c r="L56" s="139"/>
       <c r="M56" s="140" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -46342,10 +46350,10 @@
         <v>VVK</v>
       </c>
       <c r="B57" s="138" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C57" s="138" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D57" s="138"/>
       <c r="E57" s="138"/>
@@ -46360,7 +46368,7 @@
       <c r="K57" s="139"/>
       <c r="L57" s="139"/>
       <c r="M57" s="140" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -46369,10 +46377,10 @@
         <v>EKB</v>
       </c>
       <c r="B58" s="138" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C58" s="138" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D58" s="138"/>
       <c r="E58" s="138"/>
@@ -46387,7 +46395,7 @@
       <c r="K58" s="139"/>
       <c r="L58" s="139"/>
       <c r="M58" s="140" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -46396,10 +46404,10 @@
         <v>BVO</v>
       </c>
       <c r="B59" s="138" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C59" s="138" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D59" s="138"/>
       <c r="E59" s="138"/>
@@ -46414,7 +46422,7 @@
       <c r="K59" s="139"/>
       <c r="L59" s="139"/>
       <c r="M59" s="140" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -46458,109 +46466,109 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" t="s">
         <v>238</v>
-      </c>
-      <c r="C4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
         <v>237</v>
       </c>
-      <c r="B9" t="s">
-        <v>238</v>
-      </c>
       <c r="C9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -46568,10 +46576,10 @@
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -46582,7 +46590,7 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -46590,21 +46598,21 @@
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
         <v>255</v>
-      </c>
-      <c r="B14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -46612,32 +46620,32 @@
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" t="s">
         <v>263</v>
-      </c>
-      <c r="B17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -46645,21 +46653,21 @@
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" t="s">
         <v>261</v>
-      </c>
-      <c r="B19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -46667,10 +46675,10 @@
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
@@ -46681,7 +46689,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -46689,21 +46697,21 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s">
         <v>248</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>249</v>
-      </c>
-      <c r="C23" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -46714,7 +46722,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -46722,10 +46730,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -46733,10 +46741,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -46744,10 +46752,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -46755,13 +46763,13 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -46769,7 +46777,7 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
         <v>85</v>
@@ -46780,7 +46788,7 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C31" t="s">
         <v>86</v>
@@ -46791,7 +46799,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -46802,7 +46810,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C33" t="s">
         <v>87</v>
@@ -46813,7 +46821,7 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C34" t="s">
         <v>88</v>
@@ -46824,7 +46832,7 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" t="s">
         <v>89</v>
@@ -46835,7 +46843,7 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C36" t="s">
         <v>90</v>
@@ -46846,7 +46854,7 @@
         <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s">
         <v>91</v>
@@ -46857,7 +46865,7 @@
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s">
         <v>92</v>
@@ -46868,7 +46876,7 @@
         <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
         <v>93</v>
@@ -46879,7 +46887,7 @@
         <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
         <v>94</v>
@@ -46890,7 +46898,7 @@
         <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C41" t="s">
         <v>95</v>
@@ -46898,10 +46906,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
         <v>71</v>
@@ -46912,7 +46920,7 @@
         <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C43" t="s">
         <v>96</v>
@@ -46920,13 +46928,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" t="s">
         <v>277</v>
-      </c>
-      <c r="B44" t="s">
-        <v>247</v>
-      </c>
-      <c r="C44" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -47036,13 +47044,13 @@
         <v>2357</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
         <v>227</v>
-      </c>
-      <c r="D6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -47078,13 +47086,13 @@
         <v>2845</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -47120,13 +47128,13 @@
         <v>2867</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -47176,13 +47184,13 @@
         <v>2175</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -47190,13 +47198,13 @@
         <v>2971</v>
       </c>
       <c r="B17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" t="s">
         <v>280</v>
-      </c>
-      <c r="C17" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -47204,13 +47212,13 @@
         <v>2958</v>
       </c>
       <c r="B18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -47218,16 +47226,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
       </c>
       <c r="D21" t="s">
+        <v>487</v>
+      </c>
+      <c r="E21" t="s">
         <v>488</v>
-      </c>
-      <c r="E21" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -47235,16 +47243,16 @@
         <v>125</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
       </c>
       <c r="D22" t="s">
+        <v>490</v>
+      </c>
+      <c r="E22" t="s">
         <v>491</v>
-      </c>
-      <c r="E22" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -47252,16 +47260,16 @@
         <v>978</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -47269,16 +47277,16 @@
         <v>997</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C24" t="s">
+        <v>496</v>
+      </c>
+      <c r="D24" t="s">
         <v>497</v>
       </c>
-      <c r="D24" t="s">
-        <v>498</v>
-      </c>
       <c r="E24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -47286,16 +47294,16 @@
         <v>1214</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D25" t="s">
         <v>500</v>
       </c>
-      <c r="D25" t="s">
-        <v>501</v>
-      </c>
       <c r="E25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -47303,7 +47311,7 @@
         <v>1303</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -47320,16 +47328,16 @@
         <v>1308</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" t="s">
         <v>504</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>505</v>
-      </c>
-      <c r="E27" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -47337,7 +47345,7 @@
         <v>1593</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -47346,7 +47354,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -47354,16 +47362,16 @@
         <v>1869</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C29" t="s">
         <v>46</v>
       </c>
       <c r="D29" t="s">
+        <v>509</v>
+      </c>
+      <c r="E29" t="s">
         <v>510</v>
-      </c>
-      <c r="E29" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -47371,16 +47379,16 @@
         <v>2165</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C30" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -47388,16 +47396,16 @@
         <v>2175</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -47405,16 +47413,16 @@
         <v>2176</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -47422,16 +47430,16 @@
         <v>2284</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33" t="s">
+        <v>519</v>
+      </c>
+      <c r="E33" t="s">
         <v>520</v>
-      </c>
-      <c r="E33" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -47439,16 +47447,16 @@
         <v>2284</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -47456,16 +47464,16 @@
         <v>2304</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -47473,16 +47481,16 @@
         <v>2357</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -47490,7 +47498,7 @@
         <v>2384</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -47499,7 +47507,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -47507,16 +47515,16 @@
         <v>2397</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -47524,16 +47532,16 @@
         <v>2398</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -47541,16 +47549,16 @@
         <v>2398</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -47558,7 +47566,7 @@
         <v>2402</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
@@ -47567,7 +47575,7 @@
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -47575,16 +47583,16 @@
         <v>2610</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D42" t="s">
+        <v>537</v>
+      </c>
+      <c r="E42" t="s">
         <v>538</v>
-      </c>
-      <c r="E42" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -47592,16 +47600,16 @@
         <v>2683</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C43" t="s">
         <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -47609,16 +47617,16 @@
         <v>2702</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C44" t="s">
         <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -47626,16 +47634,16 @@
         <v>2723</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C45" t="s">
+        <v>544</v>
+      </c>
+      <c r="D45" t="s">
         <v>545</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>546</v>
-      </c>
-      <c r="E45" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -47643,16 +47651,16 @@
         <v>2724</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C46" t="s">
+        <v>544</v>
+      </c>
+      <c r="D46" t="s">
         <v>545</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>546</v>
-      </c>
-      <c r="E46" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -47660,16 +47668,16 @@
         <v>2725</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -47677,16 +47685,16 @@
         <v>2726</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C48" t="s">
         <v>48</v>
       </c>
       <c r="D48" t="s">
+        <v>551</v>
+      </c>
+      <c r="E48" t="s">
         <v>552</v>
-      </c>
-      <c r="E48" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -47694,16 +47702,16 @@
         <v>2739</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C49" t="s">
+        <v>554</v>
+      </c>
+      <c r="D49" t="s">
         <v>555</v>
       </c>
-      <c r="D49" t="s">
-        <v>556</v>
-      </c>
       <c r="E49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -47711,16 +47719,16 @@
         <v>2740</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C50" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D50" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -47728,16 +47736,16 @@
         <v>2742</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C51" t="s">
+        <v>559</v>
+      </c>
+      <c r="D51" t="s">
         <v>560</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>561</v>
-      </c>
-      <c r="E51" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -47745,16 +47753,16 @@
         <v>2743</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C52" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D52" t="s">
+        <v>563</v>
+      </c>
+      <c r="E52" t="s">
         <v>564</v>
-      </c>
-      <c r="E52" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -47762,16 +47770,16 @@
         <v>2744</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C53" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D53" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E53" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -47779,16 +47787,16 @@
         <v>2745</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C54" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -47796,16 +47804,16 @@
         <v>2747</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C55" t="s">
         <v>48</v>
       </c>
       <c r="D55" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -47813,16 +47821,16 @@
         <v>2750</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C56" t="s">
+        <v>571</v>
+      </c>
+      <c r="D56" t="s">
         <v>572</v>
       </c>
-      <c r="D56" t="s">
-        <v>573</v>
-      </c>
       <c r="E56" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -47830,16 +47838,16 @@
         <v>2751</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
       </c>
       <c r="D57" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -47847,16 +47855,16 @@
         <v>2755</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C58" t="s">
+        <v>576</v>
+      </c>
+      <c r="D58" t="s">
         <v>577</v>
       </c>
-      <c r="D58" t="s">
-        <v>578</v>
-      </c>
       <c r="E58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -47864,16 +47872,16 @@
         <v>2756</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C59" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D59" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -47881,16 +47889,16 @@
         <v>2760</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C60" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -47898,13 +47906,13 @@
         <v>2773</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E61" t="s">
         <v>31</v>
@@ -47915,16 +47923,16 @@
         <v>2794</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C62" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -47932,16 +47940,16 @@
         <v>2800</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C63" t="s">
         <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -47949,16 +47957,16 @@
         <v>2832</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D64" t="s">
+        <v>537</v>
+      </c>
+      <c r="E64" t="s">
         <v>538</v>
-      </c>
-      <c r="E64" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -47966,16 +47974,16 @@
         <v>2840</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C65" t="s">
         <v>38</v>
       </c>
       <c r="D65" t="s">
+        <v>588</v>
+      </c>
+      <c r="E65" t="s">
         <v>589</v>
-      </c>
-      <c r="E65" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -47983,16 +47991,16 @@
         <v>2844</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C66" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D66" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -48000,16 +48008,16 @@
         <v>2845</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C67" t="s">
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -48017,16 +48025,16 @@
         <v>2847</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -48034,16 +48042,16 @@
         <v>2848</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -48057,10 +48065,10 @@
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -48068,16 +48076,16 @@
         <v>2850</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -48085,16 +48093,16 @@
         <v>2861</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C72" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -48102,16 +48110,16 @@
         <v>2862</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C73" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -48119,16 +48127,16 @@
         <v>2863</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C74" t="s">
+        <v>603</v>
+      </c>
+      <c r="D74" t="s">
         <v>604</v>
       </c>
-      <c r="D74" t="s">
-        <v>605</v>
-      </c>
       <c r="E74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -48136,7 +48144,7 @@
         <v>2867</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -48145,7 +48153,7 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -48153,16 +48161,16 @@
         <v>2868</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C76" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -48170,16 +48178,16 @@
         <v>2869</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C77" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D77" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E77" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -48187,16 +48195,16 @@
         <v>2882</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C78" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D78" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E78" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -48204,16 +48212,16 @@
         <v>2883</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C79" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D79" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E79" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -48221,16 +48229,16 @@
         <v>2885</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C80" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D80" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -48238,16 +48246,16 @@
         <v>2886</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C81" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D81" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E81" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -48255,16 +48263,16 @@
         <v>2905</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C82" t="s">
         <v>48</v>
       </c>
       <c r="D82" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -48272,16 +48280,16 @@
         <v>2923</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C83" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D83" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -48289,16 +48297,16 @@
         <v>2924</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C84" t="s">
         <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E84" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -48306,16 +48314,16 @@
         <v>2925</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C85" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D85" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -48323,16 +48331,16 @@
         <v>2932</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C86" t="s">
+        <v>624</v>
+      </c>
+      <c r="D86" t="s">
         <v>625</v>
       </c>
-      <c r="D86" t="s">
-        <v>626</v>
-      </c>
       <c r="E86" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -48340,16 +48348,16 @@
         <v>2967</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C87" t="s">
         <v>48</v>
       </c>
       <c r="D87" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -48357,16 +48365,16 @@
         <v>2971</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C88" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -48377,28 +48385,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Datum xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5">2014-04-22T22:00:00+00:00</Datum>
-    <Status xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5">Concept</Status>
-    <Soort xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5">3</Soort>
-    <Project xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5">34</Project>
-    <Team xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5" xsi:nil="true"/>
-    <Sprint xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C18F91D7223F543A26D229338988E26" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="330999fac9b76c699af57ca0493c8bc2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68248bcb-19b6-401f-bbd7-5a13ca6706f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2803961d3a7828cc306084612340f00b" ns2:_="">
     <xsd:import namespace="68248bcb-19b6-401f-bbd7-5a13ca6706f5"/>
@@ -48495,30 +48481,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30D6388-66F3-4702-94B7-89C35254F680}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="68248bcb-19b6-401f-bbd7-5a13ca6706f5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24914416-91A2-4256-B235-851C099380D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Datum xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5">2014-04-22T22:00:00+00:00</Datum>
+    <Status xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5">Concept</Status>
+    <Soort xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5">3</Soort>
+    <Project xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5">34</Project>
+    <Team xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5" xsi:nil="true"/>
+    <Sprint xmlns="68248bcb-19b6-401f-bbd7-5a13ca6706f5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FD06382-31AF-479C-9154-70E13EA83B1D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -48533,4 +48518,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24914416-91A2-4256-B235-851C099380D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C30D6388-66F3-4702-94B7-89C35254F680}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="68248bcb-19b6-401f-bbd7-5a13ca6706f5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>